--- a/GA_POC/GAmaker.xlsx
+++ b/GA_POC/GAmaker.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="6060" windowHeight="7125" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="6060" windowHeight="7125"/>
   </bookViews>
   <sheets>
     <sheet name="Adatok" sheetId="3" r:id="rId1"/>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="308">
   <si>
     <t>black</t>
   </si>
@@ -267,66 +267,6 @@
     <t>#include &lt;stdlib.h&gt;</t>
   </si>
   <si>
-    <t>#define NAME 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    #define DANIEL 10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    #define JOSHUA 11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    #define NICHOLAS 12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    #define RYAN 13</t>
-  </si>
-  <si>
-    <t>#define MOVIE 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    #define ACTION 20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    #define COMEDY 21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    #define HORROR 22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    #define THRILLER 23</t>
-  </si>
-  <si>
-    <t>#define SNACK 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    #define CHIPS 30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    #define COOKIES 31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    #define CRACKERS 32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    #define POPCORN 33</t>
-  </si>
-  <si>
-    <t>#define AGE 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    #define ELEVEN 40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    #define TWELVE 41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    #define THIRTEEN 42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    #define FOURTEEN 43</t>
-  </si>
-  <si>
     <t>const char *TULNEVEK[TULAJDONSAG][SZEK] = {</t>
   </si>
   <si>
@@ -780,9 +720,6 @@
     <t>CRACKERS</t>
   </si>
   <si>
-    <t>COMEDI</t>
-  </si>
-  <si>
     <t>POPCORN</t>
   </si>
   <si>
@@ -1072,6 +1009,9 @@
   </si>
   <si>
     <t>fourteen</t>
+  </si>
+  <si>
+    <t>COMEDY</t>
   </si>
 </sst>
 </file>
@@ -1081,7 +1021,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General&quot;. szék&quot;"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1131,16 +1071,36 @@
       <family val="2"/>
       <charset val="238"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -1221,19 +1181,205 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1244,34 +1390,94 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF009200"/>
+      <color rgb="FF006600"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1546,68 +1752,70 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q6"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" style="23" customWidth="1"/>
+    <col min="4" max="9" width="9.140625" style="21" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:17" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="26" t="s">
         <v>9</v>
       </c>
       <c r="B1" s="1">
         <f>COUNTA(D2:D7)</f>
         <v>5</v>
       </c>
-      <c r="D1" s="4">
+      <c r="D1" s="25">
         <f>IF(D2="","",COLUMN(A1))</f>
         <v>1</v>
       </c>
-      <c r="E1" s="4">
+      <c r="E1" s="25">
         <f>IF(E2="","",COLUMN(B1))</f>
         <v>2</v>
       </c>
-      <c r="F1" s="4">
+      <c r="F1" s="25">
         <f>IF(F2="","",COLUMN(C1))</f>
         <v>3</v>
       </c>
-      <c r="G1" s="4">
+      <c r="G1" s="25">
         <f t="shared" ref="G1:Q1" si="0">IF(G2="","",COLUMN(D1))</f>
         <v>4</v>
       </c>
-      <c r="H1" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I1" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J1" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K1" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L1" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="M1" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="N1" s="4" t="str">
+      <c r="H1" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I1" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J1" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K1" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L1" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M1" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N1" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1625,116 +1833,140 @@
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="26" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="1">
         <f>COUNTA(D2:J2)</f>
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="18" t="s">
         <v>3</v>
       </c>
+      <c r="H2" s="18"/>
+      <c r="I2" s="19"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C3" s="3" t="s">
+      <c r="A3" s="26"/>
+      <c r="C3" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="21" t="s">
         <v>49</v>
       </c>
+      <c r="I3" s="22"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="24">
         <v>100</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="21" t="s">
         <v>52</v>
       </c>
+      <c r="I4" s="22"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="24">
         <v>10</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="21" t="s">
         <v>55</v>
       </c>
+      <c r="I5" s="22"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C6" s="3" t="s">
+      <c r="A6" s="26"/>
+      <c r="C6" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="D6" t="s">
-        <v>324</v>
-      </c>
-      <c r="E6" t="s">
-        <v>325</v>
-      </c>
-      <c r="F6" t="s">
-        <v>326</v>
-      </c>
-      <c r="G6" t="s">
-        <v>327</v>
-      </c>
+      <c r="D6" s="21" t="s">
+        <v>303</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>304</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>305</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>306</v>
+      </c>
+      <c r="I6" s="22"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="26"/>
+      <c r="C7" s="20"/>
     </row>
   </sheetData>
-  <dataValidations count="2">
+  <dataValidations count="6">
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Warning" error="Nem adhatsz meg több adatot!_x000a_" sqref="C8:H17">
       <formula1>""</formula1>
     </dataValidation>
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="WARNING!!!!" error="Nem adhatsz meg több adatot!_x000a_" sqref="J1:P21">
       <formula1>""</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Figyelem!" error="Ide nem írhatsz adatot!" sqref="A6:B7 A3:B3">
+      <formula1>""""""</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Figyelem!" error="Ezeknek a celláknak a tartalma nem módosítható!" sqref="A4:A5 A1:A2">
+      <formula1>""""""</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Figyelem!" error="Ezek automatikusan generált cellák. Hagyd üresen." sqref="B1:B2 D1:I1">
+      <formula1>""""""</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Figyelem!" error="Ebbe a cellába ne írjál semmit!" sqref="C1">
+      <formula1>""""""</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1747,797 +1979,1098 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="4.7109375" style="12" customWidth="1"/>
-    <col min="3" max="3" width="4.28515625" style="13" customWidth="1"/>
-    <col min="4" max="4" width="4" style="13" customWidth="1"/>
-    <col min="5" max="6" width="4.28515625" style="13" customWidth="1"/>
-    <col min="7" max="7" width="4.28515625" style="14" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" style="7" customWidth="1"/>
-    <col min="13" max="13" width="9.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="8"/>
+    <col min="1" max="1" width="64.85546875" customWidth="1"/>
+    <col min="2" max="2" width="4.7109375" style="14" customWidth="1"/>
+    <col min="3" max="3" width="4.28515625" style="15" customWidth="1"/>
+    <col min="4" max="4" width="4" style="15" customWidth="1"/>
+    <col min="5" max="6" width="4.28515625" style="15" customWidth="1"/>
+    <col min="7" max="7" width="4.28515625" style="16" customWidth="1"/>
+    <col min="8" max="9" width="9.140625" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" style="6" customWidth="1"/>
+    <col min="11" max="12" width="9.140625" customWidth="1"/>
+    <col min="13" max="13" width="9.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="9.140625" customWidth="1"/>
+    <col min="16" max="16" width="10" style="6" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="7" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="M1" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="O1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="P1" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="Q1" s="11" t="s">
+      <c r="Q1" s="13" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="12" t="str">
+      <c r="B2" s="29" t="str">
         <f>IF(IFERROR(FIND(B$1,$A2),-1)&gt;=0,"X","")</f>
         <v>X</v>
       </c>
-      <c r="C2" s="13" t="str">
+      <c r="C2" s="30" t="str">
         <f t="shared" ref="C2:F17" si="0">IF(IFERROR(FIND(C$1,$A2),-1)&gt;=0,"X","")</f>
         <v/>
       </c>
-      <c r="D2" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E2" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F2" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G2" s="14" t="str">
+      <c r="D2" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E2" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F2" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G2" s="31" t="str">
         <f>IF((COUNTIF(B2:F2,"X")=0)*(IFERROR(SEARCH($G$1,A2),0)&gt;0),"X","")</f>
         <v/>
       </c>
-      <c r="I2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J2" s="7" t="s">
+      <c r="H2" s="41"/>
+      <c r="I2" s="35" t="str">
+        <f t="array" ref="I2">IFERROR(INDEX(Adatok!$C$1:$C$7,SUM(IF(J2=Adatok!$D$2:$I$7,ROW(Adatok!$D$2:$I$7),0))),"")</f>
+        <v>NAME</v>
+      </c>
+      <c r="J2" s="36" t="s">
         <v>34</v>
       </c>
+      <c r="K2" s="41"/>
+      <c r="L2" s="35" t="str">
+        <f t="array" ref="L2">IFERROR(INDEX(Adatok!$C$1:$C$7,SUM(IF(M2=Adatok!$D$2:$I$7,ROW(Adatok!$D$2:$I$7),0))),"")</f>
+        <v/>
+      </c>
+      <c r="M2" s="36"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="35" t="str">
+        <f t="array" ref="O2">IFERROR(INDEX(Adatok!$C$1:$C$7,SUM(IF(P2=Adatok!$D$2:$I$7,ROW(Adatok!$D$2:$I$7),0))),"")</f>
+        <v/>
+      </c>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="39"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="12" t="str">
+      <c r="B3" s="32" t="str">
         <f t="shared" ref="B3:F21" si="1">IF(IFERROR(FIND(B$1,$A3),-1)&gt;=0,"X","")</f>
         <v/>
       </c>
-      <c r="C3" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D3" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E3" s="13" t="str">
+      <c r="C3" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D3" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E3" s="33" t="str">
         <f t="shared" si="0"/>
         <v>X</v>
       </c>
-      <c r="F3" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G3" s="14" t="str">
+      <c r="F3" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G3" s="34" t="str">
         <f t="shared" ref="G3:G21" si="2">IF((COUNTIF(B3:F3,"X")=0)*(IFERROR(SEARCH($G$1,A3),0)&gt;0),"X","")</f>
         <v/>
       </c>
-      <c r="I3" t="s">
-        <v>36</v>
-      </c>
-      <c r="J3" s="7" t="s">
+      <c r="H3" s="42"/>
+      <c r="I3" s="37" t="str">
+        <f t="array" ref="I3">IFERROR(INDEX(Adatok!$C$1:$C$7,SUM(IF(J3=Adatok!$D$2:$I$7,ROW(Adatok!$D$2:$I$7),0))),"")</f>
+        <v>SHIRT</v>
+      </c>
+      <c r="J3" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="L3" t="s">
-        <v>39</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>224</v>
+      <c r="K3" s="42"/>
+      <c r="L3" s="37" t="str">
+        <f t="array" ref="L3">IFERROR(INDEX(Adatok!$C$1:$C$7,SUM(IF(M3=Adatok!$D$2:$I$7,ROW(Adatok!$D$2:$I$7),0))),"")</f>
+        <v>AGE</v>
+      </c>
+      <c r="M3" s="38" t="s">
+        <v>204</v>
+      </c>
+      <c r="N3" s="42"/>
+      <c r="O3" s="37" t="str">
+        <f t="array" ref="O3">IFERROR(INDEX(Adatok!$C$1:$C$7,SUM(IF(P3=Adatok!$D$2:$I$7,ROW(Adatok!$D$2:$I$7),0))),"")</f>
+        <v/>
+      </c>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="40" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="12" t="str">
+      <c r="B4" s="32" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C4" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D4" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E4" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F4" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G4" s="14" t="str">
+      <c r="C4" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D4" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E4" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F4" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G4" s="34" t="str">
         <f t="shared" si="2"/>
         <v>X</v>
       </c>
-      <c r="I4" t="s">
-        <v>33</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="H4" s="42"/>
+      <c r="I4" s="37" t="str">
+        <f t="array" ref="I4">IFERROR(INDEX(Adatok!$C$1:$C$7,SUM(IF(J4=Adatok!$D$2:$I$7,ROW(Adatok!$D$2:$I$7),0))),"")</f>
+        <v>NAME</v>
+      </c>
+      <c r="J4" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="L4" t="s">
-        <v>40</v>
-      </c>
-      <c r="M4" s="7" t="s">
+      <c r="K4" s="42"/>
+      <c r="L4" s="37" t="str">
+        <f t="array" ref="L4">IFERROR(INDEX(Adatok!$C$1:$C$7,SUM(IF(M4=Adatok!$D$2:$I$7,ROW(Adatok!$D$2:$I$7),0))),"")</f>
+        <v>MOVIE</v>
+      </c>
+      <c r="M4" s="38" t="s">
         <v>42</v>
       </c>
+      <c r="N4" s="42"/>
+      <c r="O4" s="37" t="str">
+        <f t="array" ref="O4">IFERROR(INDEX(Adatok!$C$1:$C$7,SUM(IF(P4=Adatok!$D$2:$I$7,ROW(Adatok!$D$2:$I$7),0))),"")</f>
+        <v/>
+      </c>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="40"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>323</v>
-      </c>
-      <c r="B5" s="12" t="str">
+      <c r="A5" s="28" t="s">
+        <v>302</v>
+      </c>
+      <c r="B5" s="32" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C5" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D5" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E5" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F5" s="13" t="str">
+      <c r="C5" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D5" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E5" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F5" s="33" t="str">
         <f t="shared" si="0"/>
         <v>X</v>
       </c>
-      <c r="G5" s="14" t="str">
+      <c r="G5" s="34" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I5" t="s">
-        <v>39</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q5" s="8">
+      <c r="H5" s="42"/>
+      <c r="I5" s="37" t="str">
+        <f t="array" ref="I5">IFERROR(INDEX(Adatok!$C$1:$C$7,SUM(IF(J5=Adatok!$D$2:$I$7,ROW(Adatok!$D$2:$I$7),0))),"")</f>
+        <v>AGE</v>
+      </c>
+      <c r="J5" s="38" t="s">
+        <v>203</v>
+      </c>
+      <c r="K5" s="42"/>
+      <c r="L5" s="37" t="str">
+        <f t="array" ref="L5">IFERROR(INDEX(Adatok!$C$1:$C$7,SUM(IF(M5=Adatok!$D$2:$I$7,ROW(Adatok!$D$2:$I$7),0))),"")</f>
+        <v/>
+      </c>
+      <c r="M5" s="38"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="37" t="str">
+        <f t="array" ref="O5">IFERROR(INDEX(Adatok!$C$1:$C$7,SUM(IF(P5=Adatok!$D$2:$I$7,ROW(Adatok!$D$2:$I$7),0))),"")</f>
+        <v/>
+      </c>
+      <c r="P5" s="38"/>
+      <c r="Q5" s="40">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="12" t="str">
+      <c r="B6" s="32" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C6" s="13" t="str">
+      <c r="C6" s="33" t="str">
         <f t="shared" si="0"/>
         <v>X</v>
       </c>
-      <c r="D6" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E6" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F6" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G6" s="14" t="str">
+      <c r="D6" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E6" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F6" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G6" s="34" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I6" t="s">
-        <v>36</v>
-      </c>
-      <c r="J6" s="7" t="s">
+      <c r="H6" s="42"/>
+      <c r="I6" s="37" t="str">
+        <f t="array" ref="I6">IFERROR(INDEX(Adatok!$C$1:$C$7,SUM(IF(J6=Adatok!$D$2:$I$7,ROW(Adatok!$D$2:$I$7),0))),"")</f>
+        <v>SHIRT</v>
+      </c>
+      <c r="J6" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="L6" t="s">
-        <v>39</v>
-      </c>
-      <c r="M6" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="O6" t="s">
-        <v>40</v>
-      </c>
-      <c r="P6" s="7" t="s">
+      <c r="K6" s="42"/>
+      <c r="L6" s="37" t="str">
+        <f t="array" ref="L6">IFERROR(INDEX(Adatok!$C$1:$C$7,SUM(IF(M6=Adatok!$D$2:$I$7,ROW(Adatok!$D$2:$I$7),0))),"")</f>
+        <v>AGE</v>
+      </c>
+      <c r="M6" s="38" t="s">
+        <v>205</v>
+      </c>
+      <c r="N6" s="42"/>
+      <c r="O6" s="37" t="str">
+        <f t="array" ref="O6">IFERROR(INDEX(Adatok!$C$1:$C$7,SUM(IF(P6=Adatok!$D$2:$I$7,ROW(Adatok!$D$2:$I$7),0))),"")</f>
+        <v>MOVIE</v>
+      </c>
+      <c r="P6" s="38" t="s">
         <v>44</v>
       </c>
+      <c r="Q6" s="40"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="12" t="str">
+      <c r="B7" s="32" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C7" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D7" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E7" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F7" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G7" s="14" t="str">
+      <c r="C7" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D7" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E7" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F7" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G7" s="34" t="str">
         <f t="shared" si="2"/>
         <v>X</v>
       </c>
-      <c r="I7" t="s">
-        <v>33</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="H7" s="42"/>
+      <c r="I7" s="37" t="str">
+        <f t="array" ref="I7">IFERROR(INDEX(Adatok!$C$1:$C$7,SUM(IF(J7=Adatok!$D$2:$I$7,ROW(Adatok!$D$2:$I$7),0))),"")</f>
+        <v>NAME</v>
+      </c>
+      <c r="J7" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="L7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M7" s="7" t="s">
+      <c r="K7" s="42"/>
+      <c r="L7" s="37" t="str">
+        <f t="array" ref="L7">IFERROR(INDEX(Adatok!$C$1:$C$7,SUM(IF(M7=Adatok!$D$2:$I$7,ROW(Adatok!$D$2:$I$7),0))),"")</f>
+        <v>MOVIE</v>
+      </c>
+      <c r="M7" s="38" t="s">
         <v>42</v>
       </c>
+      <c r="N7" s="42"/>
+      <c r="O7" s="37" t="str">
+        <f t="array" ref="O7">IFERROR(INDEX(Adatok!$C$1:$C$7,SUM(IF(P7=Adatok!$D$2:$I$7,ROW(Adatok!$D$2:$I$7),0))),"")</f>
+        <v/>
+      </c>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="40"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="12" t="str">
+      <c r="B8" s="32" t="str">
         <f t="shared" si="1"/>
         <v>X</v>
       </c>
-      <c r="C8" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D8" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E8" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F8" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G8" s="14" t="str">
+      <c r="C8" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D8" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E8" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F8" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G8" s="34" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I8" t="s">
-        <v>45</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="H8" s="42"/>
+      <c r="I8" s="37" t="str">
+        <f t="array" ref="I8">IFERROR(INDEX(Adatok!$C$1:$C$7,SUM(IF(J8=Adatok!$D$2:$I$7,ROW(Adatok!$D$2:$I$7),0))),"")</f>
+        <v>SNACK</v>
+      </c>
+      <c r="J8" s="38" t="s">
         <v>46</v>
       </c>
+      <c r="K8" s="42"/>
+      <c r="L8" s="37" t="str">
+        <f t="array" ref="L8">IFERROR(INDEX(Adatok!$C$1:$C$7,SUM(IF(M8=Adatok!$D$2:$I$7,ROW(Adatok!$D$2:$I$7),0))),"")</f>
+        <v/>
+      </c>
+      <c r="M8" s="38"/>
+      <c r="N8" s="42"/>
+      <c r="O8" s="37" t="str">
+        <f t="array" ref="O8">IFERROR(INDEX(Adatok!$C$1:$C$7,SUM(IF(P8=Adatok!$D$2:$I$7,ROW(Adatok!$D$2:$I$7),0))),"")</f>
+        <v/>
+      </c>
+      <c r="P8" s="38"/>
+      <c r="Q8" s="40"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="12" t="str">
+      <c r="B9" s="32" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C9" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D9" s="13" t="str">
+      <c r="C9" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D9" s="33" t="str">
         <f t="shared" si="0"/>
         <v>X</v>
       </c>
-      <c r="E9" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F9" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G9" s="14" t="str">
+      <c r="E9" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F9" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G9" s="34" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I9" t="s">
-        <v>36</v>
-      </c>
-      <c r="J9" s="7" t="s">
+      <c r="H9" s="42"/>
+      <c r="I9" s="37" t="str">
+        <f t="array" ref="I9">IFERROR(INDEX(Adatok!$C$1:$C$7,SUM(IF(J9=Adatok!$D$2:$I$7,ROW(Adatok!$D$2:$I$7),0))),"")</f>
+        <v>SHIRT</v>
+      </c>
+      <c r="J9" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="L9" t="s">
-        <v>40</v>
-      </c>
-      <c r="M9" s="7" t="s">
+      <c r="K9" s="42"/>
+      <c r="L9" s="37" t="str">
+        <f t="array" ref="L9">IFERROR(INDEX(Adatok!$C$1:$C$7,SUM(IF(M9=Adatok!$D$2:$I$7,ROW(Adatok!$D$2:$I$7),0))),"")</f>
+        <v>MOVIE</v>
+      </c>
+      <c r="M9" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="Q9" s="8" t="s">
-        <v>226</v>
+      <c r="N9" s="42"/>
+      <c r="O9" s="37" t="str">
+        <f t="array" ref="O9">IFERROR(INDEX(Adatok!$C$1:$C$7,SUM(IF(P9=Adatok!$D$2:$I$7,ROW(Adatok!$D$2:$I$7),0))),"")</f>
+        <v/>
+      </c>
+      <c r="P9" s="38"/>
+      <c r="Q9" s="40" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="12" t="str">
+      <c r="B10" s="32" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C10" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D10" s="13" t="str">
+      <c r="C10" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D10" s="33" t="str">
         <f t="shared" si="0"/>
         <v>X</v>
       </c>
-      <c r="E10" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F10" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G10" s="14" t="str">
+      <c r="E10" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F10" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G10" s="34" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I10" t="s">
-        <v>45</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="L10" t="s">
-        <v>40</v>
-      </c>
-      <c r="M10" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q10" s="8" t="s">
-        <v>227</v>
+      <c r="H10" s="42"/>
+      <c r="I10" s="37" t="str">
+        <f t="array" ref="I10">IFERROR(INDEX(Adatok!$C$1:$C$7,SUM(IF(J10=Adatok!$D$2:$I$7,ROW(Adatok!$D$2:$I$7),0))),"")</f>
+        <v>SNACK</v>
+      </c>
+      <c r="J10" s="38" t="s">
+        <v>209</v>
+      </c>
+      <c r="K10" s="42"/>
+      <c r="L10" s="37" t="str">
+        <f t="array" ref="L10">IFERROR(INDEX(Adatok!$C$1:$C$7,SUM(IF(M10=Adatok!$D$2:$I$7,ROW(Adatok!$D$2:$I$7),0))),"")</f>
+        <v>MOVIE</v>
+      </c>
+      <c r="M10" s="38" t="s">
+        <v>307</v>
+      </c>
+      <c r="N10" s="42"/>
+      <c r="O10" s="37" t="str">
+        <f t="array" ref="O10">IFERROR(INDEX(Adatok!$C$1:$C$7,SUM(IF(P10=Adatok!$D$2:$I$7,ROW(Adatok!$D$2:$I$7),0))),"")</f>
+        <v/>
+      </c>
+      <c r="P10" s="38"/>
+      <c r="Q10" s="40" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="12" t="str">
+      <c r="B11" s="32" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C11" s="13" t="str">
+      <c r="C11" s="33" t="str">
         <f t="shared" si="0"/>
         <v>X</v>
       </c>
-      <c r="D11" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E11" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F11" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G11" s="14" t="str">
+      <c r="D11" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E11" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F11" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G11" s="34" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I11" t="s">
-        <v>36</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="H11" s="42"/>
+      <c r="I11" s="37" t="str">
+        <f t="array" ref="I11">IFERROR(INDEX(Adatok!$C$1:$C$7,SUM(IF(J11=Adatok!$D$2:$I$7,ROW(Adatok!$D$2:$I$7),0))),"")</f>
+        <v>SHIRT</v>
+      </c>
+      <c r="J11" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="L11" t="s">
-        <v>45</v>
-      </c>
-      <c r="M11" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="O11" t="s">
-        <v>33</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>232</v>
-      </c>
+      <c r="K11" s="42"/>
+      <c r="L11" s="37" t="str">
+        <f t="array" ref="L11">IFERROR(INDEX(Adatok!$C$1:$C$7,SUM(IF(M11=Adatok!$D$2:$I$7,ROW(Adatok!$D$2:$I$7),0))),"")</f>
+        <v>SNACK</v>
+      </c>
+      <c r="M11" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="N11" s="42"/>
+      <c r="O11" s="37" t="str">
+        <f t="array" ref="O11">IFERROR(INDEX(Adatok!$C$1:$C$7,SUM(IF(P11=Adatok!$D$2:$I$7,ROW(Adatok!$D$2:$I$7),0))),"")</f>
+        <v>NAME</v>
+      </c>
+      <c r="P11" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q11" s="40"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="12" t="str">
+      <c r="B12" s="32" t="str">
         <f t="shared" si="1"/>
         <v>X</v>
       </c>
-      <c r="C12" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D12" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E12" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F12" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G12" s="14" t="str">
+      <c r="C12" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D12" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E12" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F12" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G12" s="34" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I12" t="s">
-        <v>40</v>
-      </c>
-      <c r="J12" s="7" t="s">
+      <c r="H12" s="42"/>
+      <c r="I12" s="37" t="str">
+        <f t="array" ref="I12">IFERROR(INDEX(Adatok!$C$1:$C$7,SUM(IF(J12=Adatok!$D$2:$I$7,ROW(Adatok!$D$2:$I$7),0))),"")</f>
+        <v>MOVIE</v>
+      </c>
+      <c r="J12" s="38" t="s">
         <v>41</v>
       </c>
+      <c r="K12" s="42"/>
+      <c r="L12" s="37" t="str">
+        <f t="array" ref="L12">IFERROR(INDEX(Adatok!$C$1:$C$7,SUM(IF(M12=Adatok!$D$2:$I$7,ROW(Adatok!$D$2:$I$7),0))),"")</f>
+        <v/>
+      </c>
+      <c r="M12" s="38"/>
+      <c r="N12" s="42"/>
+      <c r="O12" s="37" t="str">
+        <f t="array" ref="O12">IFERROR(INDEX(Adatok!$C$1:$C$7,SUM(IF(P12=Adatok!$D$2:$I$7,ROW(Adatok!$D$2:$I$7),0))),"")</f>
+        <v/>
+      </c>
+      <c r="P12" s="38"/>
+      <c r="Q12" s="40"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="12" t="str">
+      <c r="B13" s="32" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C13" s="13" t="str">
+      <c r="C13" s="33" t="str">
         <f t="shared" si="0"/>
         <v>X</v>
       </c>
-      <c r="D13" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E13" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F13" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G13" s="14" t="str">
+      <c r="D13" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E13" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F13" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G13" s="34" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I13" t="s">
-        <v>33</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="L13" t="s">
-        <v>33</v>
-      </c>
-      <c r="M13" s="7" t="s">
+      <c r="H13" s="42"/>
+      <c r="I13" s="37" t="str">
+        <f t="array" ref="I13">IFERROR(INDEX(Adatok!$C$1:$C$7,SUM(IF(J13=Adatok!$D$2:$I$7,ROW(Adatok!$D$2:$I$7),0))),"")</f>
+        <v>NAME</v>
+      </c>
+      <c r="J13" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="K13" s="42"/>
+      <c r="L13" s="37" t="str">
+        <f t="array" ref="L13">IFERROR(INDEX(Adatok!$C$1:$C$7,SUM(IF(M13=Adatok!$D$2:$I$7,ROW(Adatok!$D$2:$I$7),0))),"")</f>
+        <v>NAME</v>
+      </c>
+      <c r="M13" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="O13" t="s">
-        <v>33</v>
-      </c>
-      <c r="P13" s="7" t="s">
+      <c r="N13" s="42"/>
+      <c r="O13" s="37" t="str">
+        <f t="array" ref="O13">IFERROR(INDEX(Adatok!$C$1:$C$7,SUM(IF(P13=Adatok!$D$2:$I$7,ROW(Adatok!$D$2:$I$7),0))),"")</f>
+        <v>NAME</v>
+      </c>
+      <c r="P13" s="38" t="s">
         <v>35</v>
       </c>
+      <c r="Q13" s="40"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>322</v>
-      </c>
-      <c r="B14" s="12" t="str">
+      <c r="A14" s="28" t="s">
+        <v>301</v>
+      </c>
+      <c r="B14" s="32" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C14" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D14" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E14" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F14" s="13" t="str">
+      <c r="C14" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D14" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E14" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F14" s="33" t="str">
         <f t="shared" si="0"/>
         <v>X</v>
       </c>
-      <c r="G14" s="14" t="str">
+      <c r="G14" s="34" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I14" t="s">
-        <v>36</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q14" s="8">
+      <c r="H14" s="42"/>
+      <c r="I14" s="37" t="str">
+        <f t="array" ref="I14">IFERROR(INDEX(Adatok!$C$1:$C$7,SUM(IF(J14=Adatok!$D$2:$I$7,ROW(Adatok!$D$2:$I$7),0))),"")</f>
+        <v>SHIRT</v>
+      </c>
+      <c r="J14" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="K14" s="42"/>
+      <c r="L14" s="37" t="str">
+        <f t="array" ref="L14">IFERROR(INDEX(Adatok!$C$1:$C$7,SUM(IF(M14=Adatok!$D$2:$I$7,ROW(Adatok!$D$2:$I$7),0))),"")</f>
+        <v/>
+      </c>
+      <c r="M14" s="38"/>
+      <c r="N14" s="42"/>
+      <c r="O14" s="37" t="str">
+        <f t="array" ref="O14">IFERROR(INDEX(Adatok!$C$1:$C$7,SUM(IF(P14=Adatok!$D$2:$I$7,ROW(Adatok!$D$2:$I$7),0))),"")</f>
+        <v/>
+      </c>
+      <c r="P14" s="38"/>
+      <c r="Q14" s="40">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="12" t="str">
+      <c r="A15" s="28"/>
+      <c r="B15" s="32" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C15" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D15" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E15" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F15" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G15" s="14" t="str">
+      <c r="C15" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D15" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E15" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F15" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G15" s="34" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
+      <c r="H15" s="42"/>
+      <c r="I15" s="37" t="str">
+        <f t="array" ref="I15">IFERROR(INDEX(Adatok!$C$1:$C$7,SUM(IF(J15=Adatok!$D$2:$I$7,ROW(Adatok!$D$2:$I$7),0))),"")</f>
+        <v/>
+      </c>
+      <c r="J15" s="38"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="37" t="str">
+        <f t="array" ref="L15">IFERROR(INDEX(Adatok!$C$1:$C$7,SUM(IF(M15=Adatok!$D$2:$I$7,ROW(Adatok!$D$2:$I$7),0))),"")</f>
+        <v/>
+      </c>
+      <c r="M15" s="38"/>
+      <c r="N15" s="42"/>
+      <c r="O15" s="37" t="str">
+        <f t="array" ref="O15">IFERROR(INDEX(Adatok!$C$1:$C$7,SUM(IF(P15=Adatok!$D$2:$I$7,ROW(Adatok!$D$2:$I$7),0))),"")</f>
+        <v/>
+      </c>
+      <c r="P15" s="38"/>
+      <c r="Q15" s="40"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B16" s="12" t="str">
+      <c r="A16" s="28"/>
+      <c r="B16" s="32" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C16" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D16" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E16" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F16" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G16" s="14" t="str">
+      <c r="C16" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D16" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E16" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F16" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G16" s="34" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="12" t="str">
+      <c r="H16" s="42"/>
+      <c r="I16" s="37" t="str">
+        <f t="array" ref="I16">IFERROR(INDEX(Adatok!$C$1:$C$7,SUM(IF(J16=Adatok!$D$2:$I$7,ROW(Adatok!$D$2:$I$7),0))),"")</f>
+        <v/>
+      </c>
+      <c r="J16" s="38"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="37" t="str">
+        <f t="array" ref="L16">IFERROR(INDEX(Adatok!$C$1:$C$7,SUM(IF(M16=Adatok!$D$2:$I$7,ROW(Adatok!$D$2:$I$7),0))),"")</f>
+        <v/>
+      </c>
+      <c r="M16" s="38"/>
+      <c r="N16" s="42"/>
+      <c r="O16" s="37" t="str">
+        <f t="array" ref="O16">IFERROR(INDEX(Adatok!$C$1:$C$7,SUM(IF(P16=Adatok!$D$2:$I$7,ROW(Adatok!$D$2:$I$7),0))),"")</f>
+        <v/>
+      </c>
+      <c r="P16" s="38"/>
+      <c r="Q16" s="40"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="28"/>
+      <c r="B17" s="32" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C17" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D17" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E17" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F17" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G17" s="14" t="str">
+      <c r="C17" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D17" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E17" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F17" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G17" s="34" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="12" t="str">
+      <c r="H17" s="42"/>
+      <c r="I17" s="37" t="str">
+        <f t="array" ref="I17">IFERROR(INDEX(Adatok!$C$1:$C$7,SUM(IF(J17=Adatok!$D$2:$I$7,ROW(Adatok!$D$2:$I$7),0))),"")</f>
+        <v/>
+      </c>
+      <c r="J17" s="38"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="37" t="str">
+        <f t="array" ref="L17">IFERROR(INDEX(Adatok!$C$1:$C$7,SUM(IF(M17=Adatok!$D$2:$I$7,ROW(Adatok!$D$2:$I$7),0))),"")</f>
+        <v/>
+      </c>
+      <c r="M17" s="38"/>
+      <c r="N17" s="42"/>
+      <c r="O17" s="37" t="str">
+        <f t="array" ref="O17">IFERROR(INDEX(Adatok!$C$1:$C$7,SUM(IF(P17=Adatok!$D$2:$I$7,ROW(Adatok!$D$2:$I$7),0))),"")</f>
+        <v/>
+      </c>
+      <c r="P17" s="38"/>
+      <c r="Q17" s="40"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="28"/>
+      <c r="B18" s="32" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C18" s="13" t="str">
+      <c r="C18" s="33" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D18" s="13" t="str">
+      <c r="D18" s="33" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="E18" s="13" t="str">
+      <c r="E18" s="33" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F18" s="13" t="str">
+      <c r="F18" s="33" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G18" s="14" t="str">
+      <c r="G18" s="34" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="12" t="str">
+      <c r="H18" s="42"/>
+      <c r="I18" s="37" t="str">
+        <f t="array" ref="I18">IFERROR(INDEX(Adatok!$C$1:$C$7,SUM(IF(J18=Adatok!$D$2:$I$7,ROW(Adatok!$D$2:$I$7),0))),"")</f>
+        <v/>
+      </c>
+      <c r="J18" s="38"/>
+      <c r="K18" s="42"/>
+      <c r="L18" s="37" t="str">
+        <f t="array" ref="L18">IFERROR(INDEX(Adatok!$C$1:$C$7,SUM(IF(M18=Adatok!$D$2:$I$7,ROW(Adatok!$D$2:$I$7),0))),"")</f>
+        <v/>
+      </c>
+      <c r="M18" s="38"/>
+      <c r="N18" s="42"/>
+      <c r="O18" s="37" t="str">
+        <f t="array" ref="O18">IFERROR(INDEX(Adatok!$C$1:$C$7,SUM(IF(P18=Adatok!$D$2:$I$7,ROW(Adatok!$D$2:$I$7),0))),"")</f>
+        <v/>
+      </c>
+      <c r="P18" s="38"/>
+      <c r="Q18" s="40"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="28"/>
+      <c r="B19" s="32" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C19" s="13" t="str">
+      <c r="C19" s="33" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D19" s="13" t="str">
+      <c r="D19" s="33" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="E19" s="13" t="str">
+      <c r="E19" s="33" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F19" s="13" t="str">
+      <c r="F19" s="33" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G19" s="14" t="str">
+      <c r="G19" s="34" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="12" t="str">
+      <c r="H19" s="42"/>
+      <c r="I19" s="37" t="str">
+        <f t="array" ref="I19">IFERROR(INDEX(Adatok!$C$1:$C$7,SUM(IF(J19=Adatok!$D$2:$I$7,ROW(Adatok!$D$2:$I$7),0))),"")</f>
+        <v/>
+      </c>
+      <c r="J19" s="38"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="37" t="str">
+        <f t="array" ref="L19">IFERROR(INDEX(Adatok!$C$1:$C$7,SUM(IF(M19=Adatok!$D$2:$I$7,ROW(Adatok!$D$2:$I$7),0))),"")</f>
+        <v/>
+      </c>
+      <c r="M19" s="38"/>
+      <c r="N19" s="42"/>
+      <c r="O19" s="37" t="str">
+        <f t="array" ref="O19">IFERROR(INDEX(Adatok!$C$1:$C$7,SUM(IF(P19=Adatok!$D$2:$I$7,ROW(Adatok!$D$2:$I$7),0))),"")</f>
+        <v/>
+      </c>
+      <c r="P19" s="38"/>
+      <c r="Q19" s="40"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="28"/>
+      <c r="B20" s="32" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C20" s="13" t="str">
+      <c r="C20" s="33" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D20" s="13" t="str">
+      <c r="D20" s="33" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="E20" s="13" t="str">
+      <c r="E20" s="33" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F20" s="13" t="str">
+      <c r="F20" s="33" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G20" s="14" t="str">
+      <c r="G20" s="34" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="12" t="str">
+      <c r="H20" s="42"/>
+      <c r="I20" s="37" t="str">
+        <f t="array" ref="I20">IFERROR(INDEX(Adatok!$C$1:$C$7,SUM(IF(J20=Adatok!$D$2:$I$7,ROW(Adatok!$D$2:$I$7),0))),"")</f>
+        <v/>
+      </c>
+      <c r="J20" s="38"/>
+      <c r="K20" s="42"/>
+      <c r="L20" s="37" t="str">
+        <f t="array" ref="L20">IFERROR(INDEX(Adatok!$C$1:$C$7,SUM(IF(M20=Adatok!$D$2:$I$7,ROW(Adatok!$D$2:$I$7),0))),"")</f>
+        <v/>
+      </c>
+      <c r="M20" s="38"/>
+      <c r="N20" s="42"/>
+      <c r="O20" s="37" t="str">
+        <f t="array" ref="O20">IFERROR(INDEX(Adatok!$C$1:$C$7,SUM(IF(P20=Adatok!$D$2:$I$7,ROW(Adatok!$D$2:$I$7),0))),"")</f>
+        <v/>
+      </c>
+      <c r="P20" s="38"/>
+      <c r="Q20" s="40"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="28"/>
+      <c r="B21" s="32" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C21" s="13" t="str">
+      <c r="C21" s="33" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D21" s="13" t="str">
+      <c r="D21" s="33" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="E21" s="13" t="str">
+      <c r="E21" s="33" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F21" s="13" t="str">
+      <c r="F21" s="33" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G21" s="14" t="str">
+      <c r="G21" s="34" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
+      <c r="H21" s="42"/>
+      <c r="I21" s="37" t="str">
+        <f t="array" ref="I21">IFERROR(INDEX(Adatok!$C$1:$C$7,SUM(IF(J21=Adatok!$D$2:$I$7,ROW(Adatok!$D$2:$I$7),0))),"")</f>
+        <v/>
+      </c>
+      <c r="J21" s="38"/>
+      <c r="K21" s="42"/>
+      <c r="L21" s="37" t="str">
+        <f t="array" ref="L21">IFERROR(INDEX(Adatok!$C$1:$C$7,SUM(IF(M21=Adatok!$D$2:$I$7,ROW(Adatok!$D$2:$I$7),0))),"")</f>
+        <v/>
+      </c>
+      <c r="M21" s="38"/>
+      <c r="N21" s="42"/>
+      <c r="O21" s="37" t="str">
+        <f t="array" ref="O21">IFERROR(INDEX(Adatok!$C$1:$C$7,SUM(IF(P21=Adatok!$D$2:$I$7,ROW(Adatok!$D$2:$I$7),0))),"")</f>
+        <v/>
+      </c>
+      <c r="P21" s="38"/>
+      <c r="Q21" s="40"/>
     </row>
   </sheetData>
-  <dataValidations count="1">
+  <dataValidations count="5">
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="WARNING!!!!" error="Nem adhatsz több tesztet a programhoz!" sqref="A22:A57">
       <formula1>""</formula1>
     </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Figyelem!" prompt="Ennek a cellának a tartalma nem módosítható!" sqref="A1:Q1 B22:G1048576">
+      <formula1>""""""</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Figyelem!" prompt="Ezeket a cellákat hagyjad üresen!" sqref="H2:I1048576 K2:L21 N2:O21">
+      <formula1>""</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Figyelem!" prompt="Ezeknek a celláknak a kitöltése nem kötelező!" sqref="A2:A21"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Figyelem!" prompt="Ennek a cellának a tartalma az A oszlop tartalmának függvényében változik!" sqref="B2:G21"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2547,40 +3080,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A21"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.42578125" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" customWidth="1"/>
     <col min="6" max="6" width="10.42578125" customWidth="1"/>
     <col min="7" max="7" width="7" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="5" t="s">
         <v>43</v>
       </c>
       <c r="H1" t="str">
@@ -2597,23 +3130,23 @@
         <f>IF(Tesztek!B2="X","    if (egyed.allel["&amp;Tesztek!I2&amp;"][0]=="&amp;Tesztek!J2&amp;" || egyed.allel["&amp;Tesztek!I2&amp;"][SZEK-1]=="&amp;Tesztek!J2&amp;") return 0; else return 1;","")</f>
         <v xml:space="preserve">    if (egyed.allel[NAME][0]==JOSHUA || egyed.allel[NAME][SZEK-1]==JOSHUA) return 0; else return 1;</v>
       </c>
-      <c r="C2" s="5" t="str">
+      <c r="C2" s="4" t="str">
         <f>IF(Tesztek!C2="X","    int egyed1=HanyadikSzek(egyed,"&amp;Tesztek!I2&amp;","&amp;Tesztek!J2&amp;");    int egyed2= HanyadikSzek(egyed,"&amp;Tesztek!L2&amp;","&amp;Tesztek!M2&amp;");    int egyed3=HanyadikSzek(egyed,"&amp;Tesztek!O2&amp;","&amp;Tesztek!P2&amp;");    return (egyed2&lt;egyed1&lt;egyed3);","")</f>
         <v/>
       </c>
-      <c r="D2" s="5" t="str">
+      <c r="D2" s="4" t="str">
         <f>IF(Tesztek!D2="X","int egyed1=HanyadikSzek(egyed,"&amp;Tesztek!I2&amp;","&amp;Tesztek!J2&amp;");    int egyed2= HanyadikSzek(egyed,"&amp;Tesztek!L2&amp;","&amp;Tesztek!M2&amp;");  return !(egyed1==egyed2"&amp;IF(Tesztek!Q2="right","-1","+1")&amp;");","")</f>
         <v/>
       </c>
       <c r="E2" t="str">
-        <f xml:space="preserve"> IF(Tesztek!E2="X","int egyed1=HanyadikSzek(egyed,"&amp;Tesztek!I2&amp;","&amp;Tesztek!J2&amp;");    int egyed2= HanyadikSzek(egyed,"&amp;Tesztek!L2&amp;","&amp;Tesztek!M2&amp;"); return (egyed1&lt;egyed2);","")</f>
-        <v/>
-      </c>
-      <c r="F2" s="5" t="str">
+        <f xml:space="preserve"> IF(Tesztek!E2="X","int egyed1=HanyadikSzek(egyed,"&amp;Tesztek!I2&amp;","&amp;Tesztek!J2&amp;");    int egyed2= HanyadikSzek(egyed,"&amp;Tesztek!L2&amp;","&amp;Tesztek!M2&amp;"); return (egyed1"&amp;IF(Tesztek!Q2="left","&lt;",IF(Tesztek!Q2="right","&gt;",""))&amp;"egyed2);","")</f>
+        <v/>
+      </c>
+      <c r="F2" s="4" t="str">
         <f>IF(Tesztek!F2="X","    if(egyed.allel["&amp;Tesztek!I2&amp;"]["&amp;Tesztek!Q2-1&amp;"]=="&amp;Tesztek!J2&amp;") return 0;    else return 1;","")</f>
         <v/>
       </c>
-      <c r="G2" s="5" t="str">
+      <c r="G2" s="4" t="str">
         <f>IF(Tesztek!G2="X","int egyed1=HanyadikSzek(egyed,"&amp;Tesztek!I2&amp;","&amp;Tesztek!J2&amp;");    int egyed2= HanyadikSzek(egyed,"&amp;Tesztek!L2&amp;","&amp;Tesztek!M2&amp;"); return !(egyed1==egyed2-1);","")</f>
         <v/>
       </c>
@@ -2631,23 +3164,23 @@
         <f>IF(Tesztek!B3="X","    if (egyed.allel["&amp;Tesztek!I3&amp;"][0]=="&amp;Tesztek!J3&amp;" || egyed.allel["&amp;Tesztek!I3&amp;"][SZEK-1]=="&amp;Tesztek!J3&amp;") return 0; else return 1;","")</f>
         <v/>
       </c>
-      <c r="C3" s="5" t="str">
+      <c r="C3" s="4" t="str">
         <f>IF(Tesztek!C3="X","    int egyed1=HanyadikSzek(egyed,"&amp;Tesztek!I3&amp;","&amp;Tesztek!J3&amp;");    int egyed2= HanyadikSzek(egyed,"&amp;Tesztek!L3&amp;","&amp;Tesztek!M3&amp;");    int egyed3=HanyadikSzek(egyed,"&amp;Tesztek!O3&amp;","&amp;Tesztek!P3&amp;");    return (egyed2&lt;egyed1&lt;egyed3);","")</f>
         <v/>
       </c>
-      <c r="D3" s="5" t="str">
+      <c r="D3" s="4" t="str">
         <f>IF(Tesztek!D3="X","int egyed1=HanyadikSzek(egyed,"&amp;Tesztek!I3&amp;","&amp;Tesztek!J3&amp;");    int egyed2= HanyadikSzek(egyed,"&amp;Tesztek!L3&amp;","&amp;Tesztek!M3&amp;");  return !(egyed1==egyed2"&amp;IF(Tesztek!Q3="right","-1","+1")&amp;");","")</f>
         <v/>
       </c>
       <c r="E3" t="str">
-        <f xml:space="preserve"> IF(Tesztek!E3="X","int egyed1=HanyadikSzek(egyed,"&amp;Tesztek!I3&amp;","&amp;Tesztek!J3&amp;");    int egyed2= HanyadikSzek(egyed,"&amp;Tesztek!L3&amp;","&amp;Tesztek!M3&amp;"); return (egyed1&lt;egyed2);","")</f>
+        <f xml:space="preserve"> IF(Tesztek!E3="X","int egyed1=HanyadikSzek(egyed,"&amp;Tesztek!I3&amp;","&amp;Tesztek!J3&amp;");    int egyed2= HanyadikSzek(egyed,"&amp;Tesztek!L3&amp;","&amp;Tesztek!M3&amp;"); return (egyed1"&amp;IF(Tesztek!Q3="left","&lt;",IF(Tesztek!Q3="right","&gt;",""))&amp;"egyed2);","")</f>
         <v>int egyed1=HanyadikSzek(egyed,SHIRT,BLACK);    int egyed2= HanyadikSzek(egyed,AGE,ELEVEN); return (egyed1&lt;egyed2);</v>
       </c>
-      <c r="F3" s="5" t="str">
+      <c r="F3" s="4" t="str">
         <f>IF(Tesztek!F3="X","    if(egyed.allel["&amp;Tesztek!I3&amp;"]["&amp;Tesztek!Q3-1&amp;"]=="&amp;Tesztek!J3&amp;") return 0;    else return 1;","")</f>
         <v/>
       </c>
-      <c r="G3" s="5" t="str">
+      <c r="G3" s="4" t="str">
         <f>IF(Tesztek!G3="X","int egyed1=HanyadikSzek(egyed,"&amp;Tesztek!I3&amp;","&amp;Tesztek!J3&amp;");    int egyed2= HanyadikSzek(egyed,"&amp;Tesztek!L3&amp;","&amp;Tesztek!M3&amp;"); return !(egyed1==egyed2-1);","")</f>
         <v/>
       </c>
@@ -2665,23 +3198,23 @@
         <f>IF(Tesztek!B4="X","    if (egyed.allel["&amp;Tesztek!I4&amp;"][0]=="&amp;Tesztek!J4&amp;" || egyed.allel["&amp;Tesztek!I4&amp;"][SZEK-1]=="&amp;Tesztek!J4&amp;") return 0; else return 1;","")</f>
         <v/>
       </c>
-      <c r="C4" s="5" t="str">
+      <c r="C4" s="4" t="str">
         <f>IF(Tesztek!C4="X","    int egyed1=HanyadikSzek(egyed,"&amp;Tesztek!I4&amp;","&amp;Tesztek!J4&amp;");    int egyed2= HanyadikSzek(egyed,"&amp;Tesztek!L4&amp;","&amp;Tesztek!M4&amp;");    int egyed3=HanyadikSzek(egyed,"&amp;Tesztek!O4&amp;","&amp;Tesztek!P4&amp;");    return (egyed2&lt;egyed1&lt;egyed3);","")</f>
         <v/>
       </c>
-      <c r="D4" s="5" t="str">
+      <c r="D4" s="4" t="str">
         <f>IF(Tesztek!D4="X","int egyed1=HanyadikSzek(egyed,"&amp;Tesztek!I4&amp;","&amp;Tesztek!J4&amp;");    int egyed2= HanyadikSzek(egyed,"&amp;Tesztek!L4&amp;","&amp;Tesztek!M4&amp;");  return !(egyed1==egyed2"&amp;IF(Tesztek!Q4="right","-1","+1")&amp;");","")</f>
         <v/>
       </c>
       <c r="E4" t="str">
-        <f xml:space="preserve"> IF(Tesztek!E4="X","int egyed1=HanyadikSzek(egyed,"&amp;Tesztek!I4&amp;","&amp;Tesztek!J4&amp;");    int egyed2= HanyadikSzek(egyed,"&amp;Tesztek!L4&amp;","&amp;Tesztek!M4&amp;"); return (egyed1&lt;egyed2);","")</f>
-        <v/>
-      </c>
-      <c r="F4" s="5" t="str">
+        <f xml:space="preserve"> IF(Tesztek!E4="X","int egyed1=HanyadikSzek(egyed,"&amp;Tesztek!I4&amp;","&amp;Tesztek!J4&amp;");    int egyed2= HanyadikSzek(egyed,"&amp;Tesztek!L4&amp;","&amp;Tesztek!M4&amp;"); return (egyed1"&amp;IF(Tesztek!Q4="left","&lt;",IF(Tesztek!Q4="right","&gt;",""))&amp;"egyed2);","")</f>
+        <v/>
+      </c>
+      <c r="F4" s="4" t="str">
         <f>IF(Tesztek!F4="X","    if(egyed.allel["&amp;Tesztek!I4&amp;"]["&amp;Tesztek!Q4-1&amp;"]=="&amp;Tesztek!J4&amp;") return 0;    else return 1;","")</f>
         <v/>
       </c>
-      <c r="G4" s="5" t="str">
+      <c r="G4" s="4" t="str">
         <f>IF(Tesztek!G4="X","int egyed1=HanyadikSzek(egyed,"&amp;Tesztek!I4&amp;","&amp;Tesztek!J4&amp;");    int egyed2= HanyadikSzek(egyed,"&amp;Tesztek!L4&amp;","&amp;Tesztek!M4&amp;"); return !(egyed1==egyed2-1);","")</f>
         <v>int egyed1=HanyadikSzek(egyed,NAME,JOSHUA);    int egyed2= HanyadikSzek(egyed,MOVIE,HORROR); return !(egyed1==egyed2-1);</v>
       </c>
@@ -2699,23 +3232,23 @@
         <f>IF(Tesztek!B5="X","    if (egyed.allel["&amp;Tesztek!I5&amp;"][0]=="&amp;Tesztek!J5&amp;" || egyed.allel["&amp;Tesztek!I5&amp;"][SZEK-1]=="&amp;Tesztek!J5&amp;") return 0; else return 1;","")</f>
         <v/>
       </c>
-      <c r="C5" s="5" t="str">
+      <c r="C5" s="4" t="str">
         <f>IF(Tesztek!C5="X","    int egyed1=HanyadikSzek(egyed,"&amp;Tesztek!I5&amp;","&amp;Tesztek!J5&amp;");    int egyed2= HanyadikSzek(egyed,"&amp;Tesztek!L5&amp;","&amp;Tesztek!M5&amp;");    int egyed3=HanyadikSzek(egyed,"&amp;Tesztek!O5&amp;","&amp;Tesztek!P5&amp;");    return (egyed2&lt;egyed1&lt;egyed3);","")</f>
         <v/>
       </c>
-      <c r="D5" s="5" t="str">
+      <c r="D5" s="4" t="str">
         <f>IF(Tesztek!D5="X","int egyed1=HanyadikSzek(egyed,"&amp;Tesztek!I5&amp;","&amp;Tesztek!J5&amp;");    int egyed2= HanyadikSzek(egyed,"&amp;Tesztek!L5&amp;","&amp;Tesztek!M5&amp;");  return !(egyed1==egyed2"&amp;IF(Tesztek!Q5="right","-1","+1")&amp;");","")</f>
         <v/>
       </c>
       <c r="E5" t="str">
-        <f xml:space="preserve"> IF(Tesztek!E5="X","int egyed1=HanyadikSzek(egyed,"&amp;Tesztek!I5&amp;","&amp;Tesztek!J5&amp;");    int egyed2= HanyadikSzek(egyed,"&amp;Tesztek!L5&amp;","&amp;Tesztek!M5&amp;"); return (egyed1&lt;egyed2);","")</f>
-        <v/>
-      </c>
-      <c r="F5" s="5" t="str">
+        <f xml:space="preserve"> IF(Tesztek!E5="X","int egyed1=HanyadikSzek(egyed,"&amp;Tesztek!I5&amp;","&amp;Tesztek!J5&amp;");    int egyed2= HanyadikSzek(egyed,"&amp;Tesztek!L5&amp;","&amp;Tesztek!M5&amp;"); return (egyed1"&amp;IF(Tesztek!Q5="left","&lt;",IF(Tesztek!Q5="right","&gt;",""))&amp;"egyed2);","")</f>
+        <v/>
+      </c>
+      <c r="F5" s="4" t="str">
         <f>IF(Tesztek!F5="X","    if(egyed.allel["&amp;Tesztek!I5&amp;"]["&amp;Tesztek!Q5-1&amp;"]=="&amp;Tesztek!J5&amp;") return 0;    else return 1;","")</f>
         <v xml:space="preserve">    if(egyed.allel[AGE][2]==FOURTEEN) return 0;    else return 1;</v>
       </c>
-      <c r="G5" s="5" t="str">
+      <c r="G5" s="4" t="str">
         <f>IF(Tesztek!G5="X","int egyed1=HanyadikSzek(egyed,"&amp;Tesztek!I5&amp;","&amp;Tesztek!J5&amp;");    int egyed2= HanyadikSzek(egyed,"&amp;Tesztek!L5&amp;","&amp;Tesztek!M5&amp;"); return !(egyed1==egyed2-1);","")</f>
         <v/>
       </c>
@@ -2733,23 +3266,23 @@
         <f>IF(Tesztek!B6="X","    if (egyed.allel["&amp;Tesztek!I6&amp;"][0]=="&amp;Tesztek!J6&amp;" || egyed.allel["&amp;Tesztek!I6&amp;"][SZEK-1]=="&amp;Tesztek!J6&amp;") return 0; else return 1;","")</f>
         <v/>
       </c>
-      <c r="C6" s="5" t="str">
+      <c r="C6" s="4" t="str">
         <f>IF(Tesztek!C6="X","    int egyed1=HanyadikSzek(egyed,"&amp;Tesztek!I6&amp;","&amp;Tesztek!J6&amp;");    int egyed2= HanyadikSzek(egyed,"&amp;Tesztek!L6&amp;","&amp;Tesztek!M6&amp;");    int egyed3=HanyadikSzek(egyed,"&amp;Tesztek!O6&amp;","&amp;Tesztek!P6&amp;");    return (egyed2&lt;egyed1&lt;egyed3);","")</f>
         <v xml:space="preserve">    int egyed1=HanyadikSzek(egyed,SHIRT,RED);    int egyed2= HanyadikSzek(egyed,AGE,THIRTEEN);    int egyed3=HanyadikSzek(egyed,MOVIE,ACTION);    return (egyed2&lt;egyed1&lt;egyed3);</v>
       </c>
-      <c r="D6" s="5" t="str">
+      <c r="D6" s="4" t="str">
         <f>IF(Tesztek!D6="X","int egyed1=HanyadikSzek(egyed,"&amp;Tesztek!I6&amp;","&amp;Tesztek!J6&amp;");    int egyed2= HanyadikSzek(egyed,"&amp;Tesztek!L6&amp;","&amp;Tesztek!M6&amp;");  return !(egyed1==egyed2"&amp;IF(Tesztek!Q6="right","-1","+1")&amp;");","")</f>
         <v/>
       </c>
       <c r="E6" t="str">
-        <f xml:space="preserve"> IF(Tesztek!E6="X","int egyed1=HanyadikSzek(egyed,"&amp;Tesztek!I6&amp;","&amp;Tesztek!J6&amp;");    int egyed2= HanyadikSzek(egyed,"&amp;Tesztek!L6&amp;","&amp;Tesztek!M6&amp;"); return (egyed1&lt;egyed2);","")</f>
-        <v/>
-      </c>
-      <c r="F6" s="5" t="str">
+        <f xml:space="preserve"> IF(Tesztek!E6="X","int egyed1=HanyadikSzek(egyed,"&amp;Tesztek!I6&amp;","&amp;Tesztek!J6&amp;");    int egyed2= HanyadikSzek(egyed,"&amp;Tesztek!L6&amp;","&amp;Tesztek!M6&amp;"); return (egyed1"&amp;IF(Tesztek!Q6="left","&lt;",IF(Tesztek!Q6="right","&gt;",""))&amp;"egyed2);","")</f>
+        <v/>
+      </c>
+      <c r="F6" s="4" t="str">
         <f>IF(Tesztek!F6="X","    if(egyed.allel["&amp;Tesztek!I6&amp;"]["&amp;Tesztek!Q6-1&amp;"]=="&amp;Tesztek!J6&amp;") return 0;    else return 1;","")</f>
         <v/>
       </c>
-      <c r="G6" s="5" t="str">
+      <c r="G6" s="4" t="str">
         <f>IF(Tesztek!G6="X","int egyed1=HanyadikSzek(egyed,"&amp;Tesztek!I6&amp;","&amp;Tesztek!J6&amp;");    int egyed2= HanyadikSzek(egyed,"&amp;Tesztek!L6&amp;","&amp;Tesztek!M6&amp;"); return !(egyed1==egyed2-1);","")</f>
         <v/>
       </c>
@@ -2767,23 +3300,23 @@
         <f>IF(Tesztek!B7="X","    if (egyed.allel["&amp;Tesztek!I7&amp;"][0]=="&amp;Tesztek!J7&amp;" || egyed.allel["&amp;Tesztek!I7&amp;"][SZEK-1]=="&amp;Tesztek!J7&amp;") return 0; else return 1;","")</f>
         <v/>
       </c>
-      <c r="C7" s="5" t="str">
+      <c r="C7" s="4" t="str">
         <f>IF(Tesztek!C7="X","    int egyed1=HanyadikSzek(egyed,"&amp;Tesztek!I7&amp;","&amp;Tesztek!J7&amp;");    int egyed2= HanyadikSzek(egyed,"&amp;Tesztek!L7&amp;","&amp;Tesztek!M7&amp;");    int egyed3=HanyadikSzek(egyed,"&amp;Tesztek!O7&amp;","&amp;Tesztek!P7&amp;");    return (egyed2&lt;egyed1&lt;egyed3);","")</f>
         <v/>
       </c>
-      <c r="D7" s="5" t="str">
+      <c r="D7" s="4" t="str">
         <f>IF(Tesztek!D7="X","int egyed1=HanyadikSzek(egyed,"&amp;Tesztek!I7&amp;","&amp;Tesztek!J7&amp;");    int egyed2= HanyadikSzek(egyed,"&amp;Tesztek!L7&amp;","&amp;Tesztek!M7&amp;");  return !(egyed1==egyed2"&amp;IF(Tesztek!Q7="right","-1","+1")&amp;");","")</f>
         <v/>
       </c>
       <c r="E7" t="str">
-        <f xml:space="preserve"> IF(Tesztek!E7="X","int egyed1=HanyadikSzek(egyed,"&amp;Tesztek!I7&amp;","&amp;Tesztek!J7&amp;");    int egyed2= HanyadikSzek(egyed,"&amp;Tesztek!L7&amp;","&amp;Tesztek!M7&amp;"); return (egyed1&lt;egyed2);","")</f>
-        <v/>
-      </c>
-      <c r="F7" s="5" t="str">
+        <f xml:space="preserve"> IF(Tesztek!E7="X","int egyed1=HanyadikSzek(egyed,"&amp;Tesztek!I7&amp;","&amp;Tesztek!J7&amp;");    int egyed2= HanyadikSzek(egyed,"&amp;Tesztek!L7&amp;","&amp;Tesztek!M7&amp;"); return (egyed1"&amp;IF(Tesztek!Q7="left","&lt;",IF(Tesztek!Q7="right","&gt;",""))&amp;"egyed2);","")</f>
+        <v/>
+      </c>
+      <c r="F7" s="4" t="str">
         <f>IF(Tesztek!F7="X","    if(egyed.allel["&amp;Tesztek!I7&amp;"]["&amp;Tesztek!Q7-1&amp;"]=="&amp;Tesztek!J7&amp;") return 0;    else return 1;","")</f>
         <v/>
       </c>
-      <c r="G7" s="5" t="str">
+      <c r="G7" s="4" t="str">
         <f>IF(Tesztek!G7="X","int egyed1=HanyadikSzek(egyed,"&amp;Tesztek!I7&amp;","&amp;Tesztek!J7&amp;");    int egyed2= HanyadikSzek(egyed,"&amp;Tesztek!L7&amp;","&amp;Tesztek!M7&amp;"); return !(egyed1==egyed2-1);","")</f>
         <v>int egyed1=HanyadikSzek(egyed,NAME,DANIEL);    int egyed2= HanyadikSzek(egyed,MOVIE,HORROR); return !(egyed1==egyed2-1);</v>
       </c>
@@ -2801,23 +3334,23 @@
         <f>IF(Tesztek!B8="X","    if (egyed.allel["&amp;Tesztek!I8&amp;"][0]=="&amp;Tesztek!J8&amp;" || egyed.allel["&amp;Tesztek!I8&amp;"][SZEK-1]=="&amp;Tesztek!J8&amp;") return 0; else return 1;","")</f>
         <v xml:space="preserve">    if (egyed.allel[SNACK][0]==COOKIES || egyed.allel[SNACK][SZEK-1]==COOKIES) return 0; else return 1;</v>
       </c>
-      <c r="C8" s="5" t="str">
+      <c r="C8" s="4" t="str">
         <f>IF(Tesztek!C8="X","    int egyed1=HanyadikSzek(egyed,"&amp;Tesztek!I8&amp;","&amp;Tesztek!J8&amp;");    int egyed2= HanyadikSzek(egyed,"&amp;Tesztek!L8&amp;","&amp;Tesztek!M8&amp;");    int egyed3=HanyadikSzek(egyed,"&amp;Tesztek!O8&amp;","&amp;Tesztek!P8&amp;");    return (egyed2&lt;egyed1&lt;egyed3);","")</f>
         <v/>
       </c>
-      <c r="D8" s="5" t="str">
+      <c r="D8" s="4" t="str">
         <f>IF(Tesztek!D8="X","int egyed1=HanyadikSzek(egyed,"&amp;Tesztek!I8&amp;","&amp;Tesztek!J8&amp;");    int egyed2= HanyadikSzek(egyed,"&amp;Tesztek!L8&amp;","&amp;Tesztek!M8&amp;");  return !(egyed1==egyed2"&amp;IF(Tesztek!Q8="right","-1","+1")&amp;");","")</f>
         <v/>
       </c>
       <c r="E8" t="str">
-        <f xml:space="preserve"> IF(Tesztek!E8="X","int egyed1=HanyadikSzek(egyed,"&amp;Tesztek!I8&amp;","&amp;Tesztek!J8&amp;");    int egyed2= HanyadikSzek(egyed,"&amp;Tesztek!L8&amp;","&amp;Tesztek!M8&amp;"); return (egyed1&lt;egyed2);","")</f>
-        <v/>
-      </c>
-      <c r="F8" s="5" t="str">
+        <f xml:space="preserve"> IF(Tesztek!E8="X","int egyed1=HanyadikSzek(egyed,"&amp;Tesztek!I8&amp;","&amp;Tesztek!J8&amp;");    int egyed2= HanyadikSzek(egyed,"&amp;Tesztek!L8&amp;","&amp;Tesztek!M8&amp;"); return (egyed1"&amp;IF(Tesztek!Q8="left","&lt;",IF(Tesztek!Q8="right","&gt;",""))&amp;"egyed2);","")</f>
+        <v/>
+      </c>
+      <c r="F8" s="4" t="str">
         <f>IF(Tesztek!F8="X","    if(egyed.allel["&amp;Tesztek!I8&amp;"]["&amp;Tesztek!Q8-1&amp;"]=="&amp;Tesztek!J8&amp;") return 0;    else return 1;","")</f>
         <v/>
       </c>
-      <c r="G8" s="5" t="str">
+      <c r="G8" s="4" t="str">
         <f>IF(Tesztek!G8="X","int egyed1=HanyadikSzek(egyed,"&amp;Tesztek!I8&amp;","&amp;Tesztek!J8&amp;");    int egyed2= HanyadikSzek(egyed,"&amp;Tesztek!L8&amp;","&amp;Tesztek!M8&amp;"); return !(egyed1==egyed2-1);","")</f>
         <v/>
       </c>
@@ -2835,23 +3368,23 @@
         <f>IF(Tesztek!B9="X","    if (egyed.allel["&amp;Tesztek!I9&amp;"][0]=="&amp;Tesztek!J9&amp;" || egyed.allel["&amp;Tesztek!I9&amp;"][SZEK-1]=="&amp;Tesztek!J9&amp;") return 0; else return 1;","")</f>
         <v/>
       </c>
-      <c r="C9" s="5" t="str">
+      <c r="C9" s="4" t="str">
         <f>IF(Tesztek!C9="X","    int egyed1=HanyadikSzek(egyed,"&amp;Tesztek!I9&amp;","&amp;Tesztek!J9&amp;");    int egyed2= HanyadikSzek(egyed,"&amp;Tesztek!L9&amp;","&amp;Tesztek!M9&amp;");    int egyed3=HanyadikSzek(egyed,"&amp;Tesztek!O9&amp;","&amp;Tesztek!P9&amp;");    return (egyed2&lt;egyed1&lt;egyed3);","")</f>
         <v/>
       </c>
-      <c r="D9" s="5" t="str">
+      <c r="D9" s="4" t="str">
         <f>IF(Tesztek!D9="X","int egyed1=HanyadikSzek(egyed,"&amp;Tesztek!I9&amp;","&amp;Tesztek!J9&amp;");    int egyed2= HanyadikSzek(egyed,"&amp;Tesztek!L9&amp;","&amp;Tesztek!M9&amp;");  return !(egyed1==egyed2"&amp;IF(Tesztek!Q9="right","-1","+1")&amp;");","")</f>
         <v>int egyed1=HanyadikSzek(egyed,SHIRT,BLACK);    int egyed2= HanyadikSzek(egyed,MOVIE,THRILLER);  return !(egyed1==egyed2+1);</v>
       </c>
       <c r="E9" t="str">
-        <f xml:space="preserve"> IF(Tesztek!E9="X","int egyed1=HanyadikSzek(egyed,"&amp;Tesztek!I9&amp;","&amp;Tesztek!J9&amp;");    int egyed2= HanyadikSzek(egyed,"&amp;Tesztek!L9&amp;","&amp;Tesztek!M9&amp;"); return (egyed1&lt;egyed2);","")</f>
-        <v/>
-      </c>
-      <c r="F9" s="5" t="str">
+        <f xml:space="preserve"> IF(Tesztek!E9="X","int egyed1=HanyadikSzek(egyed,"&amp;Tesztek!I9&amp;","&amp;Tesztek!J9&amp;");    int egyed2= HanyadikSzek(egyed,"&amp;Tesztek!L9&amp;","&amp;Tesztek!M9&amp;"); return (egyed1"&amp;IF(Tesztek!Q9="left","&lt;",IF(Tesztek!Q9="right","&gt;",""))&amp;"egyed2);","")</f>
+        <v/>
+      </c>
+      <c r="F9" s="4" t="str">
         <f>IF(Tesztek!F9="X","    if(egyed.allel["&amp;Tesztek!I9&amp;"]["&amp;Tesztek!Q9-1&amp;"]=="&amp;Tesztek!J9&amp;") return 0;    else return 1;","")</f>
         <v/>
       </c>
-      <c r="G9" s="5" t="str">
+      <c r="G9" s="4" t="str">
         <f>IF(Tesztek!G9="X","int egyed1=HanyadikSzek(egyed,"&amp;Tesztek!I9&amp;","&amp;Tesztek!J9&amp;");    int egyed2= HanyadikSzek(egyed,"&amp;Tesztek!L9&amp;","&amp;Tesztek!M9&amp;"); return !(egyed1==egyed2-1);","")</f>
         <v/>
       </c>
@@ -2869,23 +3402,23 @@
         <f>IF(Tesztek!B10="X","    if (egyed.allel["&amp;Tesztek!I10&amp;"][0]=="&amp;Tesztek!J10&amp;" || egyed.allel["&amp;Tesztek!I10&amp;"][SZEK-1]=="&amp;Tesztek!J10&amp;") return 0; else return 1;","")</f>
         <v/>
       </c>
-      <c r="C10" s="5" t="str">
+      <c r="C10" s="4" t="str">
         <f>IF(Tesztek!C10="X","    int egyed1=HanyadikSzek(egyed,"&amp;Tesztek!I10&amp;","&amp;Tesztek!J10&amp;");    int egyed2= HanyadikSzek(egyed,"&amp;Tesztek!L10&amp;","&amp;Tesztek!M10&amp;");    int egyed3=HanyadikSzek(egyed,"&amp;Tesztek!O10&amp;","&amp;Tesztek!P10&amp;");    return (egyed2&lt;egyed1&lt;egyed3);","")</f>
         <v/>
       </c>
-      <c r="D10" s="5" t="str">
+      <c r="D10" s="4" t="str">
         <f>IF(Tesztek!D10="X","int egyed1=HanyadikSzek(egyed,"&amp;Tesztek!I10&amp;","&amp;Tesztek!J10&amp;");    int egyed2= HanyadikSzek(egyed,"&amp;Tesztek!L10&amp;","&amp;Tesztek!M10&amp;");  return !(egyed1==egyed2"&amp;IF(Tesztek!Q10="right","-1","+1")&amp;");","")</f>
-        <v>int egyed1=HanyadikSzek(egyed,SNACK,CRACKERS);    int egyed2= HanyadikSzek(egyed,MOVIE,COMEDI);  return !(egyed1==egyed2-1);</v>
+        <v>int egyed1=HanyadikSzek(egyed,SNACK,CRACKERS);    int egyed2= HanyadikSzek(egyed,MOVIE,COMEDY);  return !(egyed1==egyed2-1);</v>
       </c>
       <c r="E10" t="str">
-        <f xml:space="preserve"> IF(Tesztek!E10="X","int egyed1=HanyadikSzek(egyed,"&amp;Tesztek!I10&amp;","&amp;Tesztek!J10&amp;");    int egyed2= HanyadikSzek(egyed,"&amp;Tesztek!L10&amp;","&amp;Tesztek!M10&amp;"); return (egyed1&lt;egyed2);","")</f>
-        <v/>
-      </c>
-      <c r="F10" s="5" t="str">
+        <f xml:space="preserve"> IF(Tesztek!E10="X","int egyed1=HanyadikSzek(egyed,"&amp;Tesztek!I10&amp;","&amp;Tesztek!J10&amp;");    int egyed2= HanyadikSzek(egyed,"&amp;Tesztek!L10&amp;","&amp;Tesztek!M10&amp;"); return (egyed1"&amp;IF(Tesztek!Q10="left","&lt;",IF(Tesztek!Q10="right","&gt;",""))&amp;"egyed2);","")</f>
+        <v/>
+      </c>
+      <c r="F10" s="4" t="str">
         <f>IF(Tesztek!F10="X","    if(egyed.allel["&amp;Tesztek!I10&amp;"]["&amp;Tesztek!Q10-1&amp;"]=="&amp;Tesztek!J10&amp;") return 0;    else return 1;","")</f>
         <v/>
       </c>
-      <c r="G10" s="5" t="str">
+      <c r="G10" s="4" t="str">
         <f>IF(Tesztek!G10="X","int egyed1=HanyadikSzek(egyed,"&amp;Tesztek!I10&amp;","&amp;Tesztek!J10&amp;");    int egyed2= HanyadikSzek(egyed,"&amp;Tesztek!L10&amp;","&amp;Tesztek!M10&amp;"); return !(egyed1==egyed2-1);","")</f>
         <v/>
       </c>
@@ -2903,23 +3436,23 @@
         <f>IF(Tesztek!B11="X","    if (egyed.allel["&amp;Tesztek!I11&amp;"][0]=="&amp;Tesztek!J11&amp;" || egyed.allel["&amp;Tesztek!I11&amp;"][SZEK-1]=="&amp;Tesztek!J11&amp;") return 0; else return 1;","")</f>
         <v/>
       </c>
-      <c r="C11" s="5" t="str">
+      <c r="C11" s="4" t="str">
         <f>IF(Tesztek!C11="X","    int egyed1=HanyadikSzek(egyed,"&amp;Tesztek!I11&amp;","&amp;Tesztek!J11&amp;");    int egyed2= HanyadikSzek(egyed,"&amp;Tesztek!L11&amp;","&amp;Tesztek!M11&amp;");    int egyed3=HanyadikSzek(egyed,"&amp;Tesztek!O11&amp;","&amp;Tesztek!P11&amp;");    return (egyed2&lt;egyed1&lt;egyed3);","")</f>
         <v xml:space="preserve">    int egyed1=HanyadikSzek(egyed,SHIRT,RED);    int egyed2= HanyadikSzek(egyed,SNACK,POPCORN);    int egyed3=HanyadikSzek(egyed,NAME,NICHOLAS);    return (egyed2&lt;egyed1&lt;egyed3);</v>
       </c>
-      <c r="D11" s="5" t="str">
+      <c r="D11" s="4" t="str">
         <f>IF(Tesztek!D11="X","int egyed1=HanyadikSzek(egyed,"&amp;Tesztek!I11&amp;","&amp;Tesztek!J11&amp;");    int egyed2= HanyadikSzek(egyed,"&amp;Tesztek!L11&amp;","&amp;Tesztek!M11&amp;");  return !(egyed1==egyed2"&amp;IF(Tesztek!Q11="right","-1","+1")&amp;");","")</f>
         <v/>
       </c>
       <c r="E11" t="str">
-        <f xml:space="preserve"> IF(Tesztek!E11="X","int egyed1=HanyadikSzek(egyed,"&amp;Tesztek!I11&amp;","&amp;Tesztek!J11&amp;");    int egyed2= HanyadikSzek(egyed,"&amp;Tesztek!L11&amp;","&amp;Tesztek!M11&amp;"); return (egyed1&lt;egyed2);","")</f>
-        <v/>
-      </c>
-      <c r="F11" s="5" t="str">
+        <f xml:space="preserve"> IF(Tesztek!E11="X","int egyed1=HanyadikSzek(egyed,"&amp;Tesztek!I11&amp;","&amp;Tesztek!J11&amp;");    int egyed2= HanyadikSzek(egyed,"&amp;Tesztek!L11&amp;","&amp;Tesztek!M11&amp;"); return (egyed1"&amp;IF(Tesztek!Q11="left","&lt;",IF(Tesztek!Q11="right","&gt;",""))&amp;"egyed2);","")</f>
+        <v/>
+      </c>
+      <c r="F11" s="4" t="str">
         <f>IF(Tesztek!F11="X","    if(egyed.allel["&amp;Tesztek!I11&amp;"]["&amp;Tesztek!Q11-1&amp;"]=="&amp;Tesztek!J11&amp;") return 0;    else return 1;","")</f>
         <v/>
       </c>
-      <c r="G11" s="5" t="str">
+      <c r="G11" s="4" t="str">
         <f>IF(Tesztek!G11="X","int egyed1=HanyadikSzek(egyed,"&amp;Tesztek!I11&amp;","&amp;Tesztek!J11&amp;");    int egyed2= HanyadikSzek(egyed,"&amp;Tesztek!L11&amp;","&amp;Tesztek!M11&amp;"); return !(egyed1==egyed2-1);","")</f>
         <v/>
       </c>
@@ -2937,23 +3470,23 @@
         <f>IF(Tesztek!B12="X","    if (egyed.allel["&amp;Tesztek!I12&amp;"][0]=="&amp;Tesztek!J12&amp;" || egyed.allel["&amp;Tesztek!I12&amp;"][SZEK-1]=="&amp;Tesztek!J12&amp;") return 0; else return 1;","")</f>
         <v xml:space="preserve">    if (egyed.allel[MOVIE][0]==THRILLER || egyed.allel[MOVIE][SZEK-1]==THRILLER) return 0; else return 1;</v>
       </c>
-      <c r="C12" s="5" t="str">
+      <c r="C12" s="4" t="str">
         <f>IF(Tesztek!C12="X","    int egyed1=HanyadikSzek(egyed,"&amp;Tesztek!I12&amp;","&amp;Tesztek!J12&amp;");    int egyed2= HanyadikSzek(egyed,"&amp;Tesztek!L12&amp;","&amp;Tesztek!M12&amp;");    int egyed3=HanyadikSzek(egyed,"&amp;Tesztek!O12&amp;","&amp;Tesztek!P12&amp;");    return (egyed2&lt;egyed1&lt;egyed3);","")</f>
         <v/>
       </c>
-      <c r="D12" s="5" t="str">
+      <c r="D12" s="4" t="str">
         <f>IF(Tesztek!D12="X","int egyed1=HanyadikSzek(egyed,"&amp;Tesztek!I12&amp;","&amp;Tesztek!J12&amp;");    int egyed2= HanyadikSzek(egyed,"&amp;Tesztek!L12&amp;","&amp;Tesztek!M12&amp;");  return !(egyed1==egyed2"&amp;IF(Tesztek!Q12="right","-1","+1")&amp;");","")</f>
         <v/>
       </c>
       <c r="E12" t="str">
-        <f xml:space="preserve"> IF(Tesztek!E12="X","int egyed1=HanyadikSzek(egyed,"&amp;Tesztek!I12&amp;","&amp;Tesztek!J12&amp;");    int egyed2= HanyadikSzek(egyed,"&amp;Tesztek!L12&amp;","&amp;Tesztek!M12&amp;"); return (egyed1&lt;egyed2);","")</f>
-        <v/>
-      </c>
-      <c r="F12" s="5" t="str">
+        <f xml:space="preserve"> IF(Tesztek!E12="X","int egyed1=HanyadikSzek(egyed,"&amp;Tesztek!I12&amp;","&amp;Tesztek!J12&amp;");    int egyed2= HanyadikSzek(egyed,"&amp;Tesztek!L12&amp;","&amp;Tesztek!M12&amp;"); return (egyed1"&amp;IF(Tesztek!Q12="left","&lt;",IF(Tesztek!Q12="right","&gt;",""))&amp;"egyed2);","")</f>
+        <v/>
+      </c>
+      <c r="F12" s="4" t="str">
         <f>IF(Tesztek!F12="X","    if(egyed.allel["&amp;Tesztek!I12&amp;"]["&amp;Tesztek!Q12-1&amp;"]=="&amp;Tesztek!J12&amp;") return 0;    else return 1;","")</f>
         <v/>
       </c>
-      <c r="G12" s="5" t="str">
+      <c r="G12" s="4" t="str">
         <f>IF(Tesztek!G12="X","int egyed1=HanyadikSzek(egyed,"&amp;Tesztek!I12&amp;","&amp;Tesztek!J12&amp;");    int egyed2= HanyadikSzek(egyed,"&amp;Tesztek!L12&amp;","&amp;Tesztek!M12&amp;"); return !(egyed1==egyed2-1);","")</f>
         <v/>
       </c>
@@ -2971,23 +3504,23 @@
         <f>IF(Tesztek!B13="X","    if (egyed.allel["&amp;Tesztek!I13&amp;"][0]=="&amp;Tesztek!J13&amp;" || egyed.allel["&amp;Tesztek!I13&amp;"][SZEK-1]=="&amp;Tesztek!J13&amp;") return 0; else return 1;","")</f>
         <v/>
       </c>
-      <c r="C13" s="5" t="str">
+      <c r="C13" s="4" t="str">
         <f>IF(Tesztek!C13="X","    int egyed1=HanyadikSzek(egyed,"&amp;Tesztek!I13&amp;","&amp;Tesztek!J13&amp;");    int egyed2= HanyadikSzek(egyed,"&amp;Tesztek!L13&amp;","&amp;Tesztek!M13&amp;");    int egyed3=HanyadikSzek(egyed,"&amp;Tesztek!O13&amp;","&amp;Tesztek!P13&amp;");    return (egyed2&lt;egyed1&lt;egyed3);","")</f>
         <v xml:space="preserve">    int egyed1=HanyadikSzek(egyed,NAME,NICHOLAS);    int egyed2= HanyadikSzek(egyed,NAME,JOSHUA);    int egyed3=HanyadikSzek(egyed,NAME,DANIEL);    return (egyed2&lt;egyed1&lt;egyed3);</v>
       </c>
-      <c r="D13" s="5" t="str">
+      <c r="D13" s="4" t="str">
         <f>IF(Tesztek!D13="X","int egyed1=HanyadikSzek(egyed,"&amp;Tesztek!I13&amp;","&amp;Tesztek!J13&amp;");    int egyed2= HanyadikSzek(egyed,"&amp;Tesztek!L13&amp;","&amp;Tesztek!M13&amp;");  return !(egyed1==egyed2"&amp;IF(Tesztek!Q13="right","-1","+1")&amp;");","")</f>
         <v/>
       </c>
       <c r="E13" t="str">
-        <f xml:space="preserve"> IF(Tesztek!E13="X","int egyed1=HanyadikSzek(egyed,"&amp;Tesztek!I13&amp;","&amp;Tesztek!J13&amp;");    int egyed2= HanyadikSzek(egyed,"&amp;Tesztek!L13&amp;","&amp;Tesztek!M13&amp;"); return (egyed1&lt;egyed2);","")</f>
-        <v/>
-      </c>
-      <c r="F13" s="5" t="str">
+        <f xml:space="preserve"> IF(Tesztek!E13="X","int egyed1=HanyadikSzek(egyed,"&amp;Tesztek!I13&amp;","&amp;Tesztek!J13&amp;");    int egyed2= HanyadikSzek(egyed,"&amp;Tesztek!L13&amp;","&amp;Tesztek!M13&amp;"); return (egyed1"&amp;IF(Tesztek!Q13="left","&lt;",IF(Tesztek!Q13="right","&gt;",""))&amp;"egyed2);","")</f>
+        <v/>
+      </c>
+      <c r="F13" s="4" t="str">
         <f>IF(Tesztek!F13="X","    if(egyed.allel["&amp;Tesztek!I13&amp;"]["&amp;Tesztek!Q13-1&amp;"]=="&amp;Tesztek!J13&amp;") return 0;    else return 1;","")</f>
         <v/>
       </c>
-      <c r="G13" s="5" t="str">
+      <c r="G13" s="4" t="str">
         <f>IF(Tesztek!G13="X","int egyed1=HanyadikSzek(egyed,"&amp;Tesztek!I13&amp;","&amp;Tesztek!J13&amp;");    int egyed2= HanyadikSzek(egyed,"&amp;Tesztek!L13&amp;","&amp;Tesztek!M13&amp;"); return !(egyed1==egyed2-1);","")</f>
         <v/>
       </c>
@@ -3005,23 +3538,23 @@
         <f>IF(Tesztek!B14="X","    if (egyed.allel["&amp;Tesztek!I14&amp;"][0]=="&amp;Tesztek!J14&amp;" || egyed.allel["&amp;Tesztek!I14&amp;"][SZEK-1]=="&amp;Tesztek!J14&amp;") return 0; else return 1;","")</f>
         <v/>
       </c>
-      <c r="C14" s="5" t="str">
+      <c r="C14" s="4" t="str">
         <f>IF(Tesztek!C14="X","    int egyed1=HanyadikSzek(egyed,"&amp;Tesztek!I14&amp;","&amp;Tesztek!J14&amp;");    int egyed2= HanyadikSzek(egyed,"&amp;Tesztek!L14&amp;","&amp;Tesztek!M14&amp;");    int egyed3=HanyadikSzek(egyed,"&amp;Tesztek!O14&amp;","&amp;Tesztek!P14&amp;");    return (egyed2&lt;egyed1&lt;egyed3);","")</f>
         <v/>
       </c>
-      <c r="D14" s="5" t="str">
+      <c r="D14" s="4" t="str">
         <f>IF(Tesztek!D14="X","int egyed1=HanyadikSzek(egyed,"&amp;Tesztek!I14&amp;","&amp;Tesztek!J14&amp;");    int egyed2= HanyadikSzek(egyed,"&amp;Tesztek!L14&amp;","&amp;Tesztek!M14&amp;");  return !(egyed1==egyed2"&amp;IF(Tesztek!Q14="right","-1","+1")&amp;");","")</f>
         <v/>
       </c>
       <c r="E14" t="str">
-        <f xml:space="preserve"> IF(Tesztek!E14="X","int egyed1=HanyadikSzek(egyed,"&amp;Tesztek!I14&amp;","&amp;Tesztek!J14&amp;");    int egyed2= HanyadikSzek(egyed,"&amp;Tesztek!L14&amp;","&amp;Tesztek!M14&amp;"); return (egyed1&lt;egyed2);","")</f>
-        <v/>
-      </c>
-      <c r="F14" s="5" t="str">
+        <f xml:space="preserve"> IF(Tesztek!E14="X","int egyed1=HanyadikSzek(egyed,"&amp;Tesztek!I14&amp;","&amp;Tesztek!J14&amp;");    int egyed2= HanyadikSzek(egyed,"&amp;Tesztek!L14&amp;","&amp;Tesztek!M14&amp;"); return (egyed1"&amp;IF(Tesztek!Q14="left","&lt;",IF(Tesztek!Q14="right","&gt;",""))&amp;"egyed2);","")</f>
+        <v/>
+      </c>
+      <c r="F14" s="4" t="str">
         <f>IF(Tesztek!F14="X","    if(egyed.allel["&amp;Tesztek!I14&amp;"]["&amp;Tesztek!Q14-1&amp;"]=="&amp;Tesztek!J14&amp;") return 0;    else return 1;","")</f>
         <v xml:space="preserve">    if(egyed.allel[SHIRT][0]==GREEN) return 0;    else return 1;</v>
       </c>
-      <c r="G14" s="5" t="str">
+      <c r="G14" s="4" t="str">
         <f>IF(Tesztek!G14="X","int egyed1=HanyadikSzek(egyed,"&amp;Tesztek!I14&amp;","&amp;Tesztek!J14&amp;");    int egyed2= HanyadikSzek(egyed,"&amp;Tesztek!L14&amp;","&amp;Tesztek!M14&amp;"); return !(egyed1==egyed2-1);","")</f>
         <v/>
       </c>
@@ -3039,23 +3572,23 @@
         <f>IF(Tesztek!B15="X","    if (egyed.allel["&amp;Tesztek!I15&amp;"][0]=="&amp;Tesztek!J15&amp;" || egyed.allel["&amp;Tesztek!I15&amp;"][SZEK-1]=="&amp;Tesztek!J15&amp;") return 0; else return 1;","")</f>
         <v/>
       </c>
-      <c r="C15" s="5" t="str">
+      <c r="C15" s="4" t="str">
         <f>IF(Tesztek!C15="X","    int egyed1=HanyadikSzek(egyed,"&amp;Tesztek!I15&amp;","&amp;Tesztek!J15&amp;");    int egyed2= HanyadikSzek(egyed,"&amp;Tesztek!L15&amp;","&amp;Tesztek!M15&amp;");    int egyed3=HanyadikSzek(egyed,"&amp;Tesztek!O15&amp;","&amp;Tesztek!P15&amp;");    return (egyed2&lt;egyed1&lt;egyed3);","")</f>
         <v/>
       </c>
-      <c r="D15" s="5" t="str">
+      <c r="D15" s="4" t="str">
         <f>IF(Tesztek!D15="X","int egyed1=HanyadikSzek(egyed,"&amp;Tesztek!I15&amp;","&amp;Tesztek!J15&amp;");    int egyed2= HanyadikSzek(egyed,"&amp;Tesztek!L15&amp;","&amp;Tesztek!M15&amp;");  return !(egyed1==egyed2"&amp;IF(Tesztek!Q15="right","-1","+1")&amp;");","")</f>
         <v/>
       </c>
       <c r="E15" t="str">
-        <f xml:space="preserve"> IF(Tesztek!E15="X","int egyed1=HanyadikSzek(egyed,"&amp;Tesztek!I15&amp;","&amp;Tesztek!J15&amp;");    int egyed2= HanyadikSzek(egyed,"&amp;Tesztek!L15&amp;","&amp;Tesztek!M15&amp;"); return (egyed1&lt;egyed2);","")</f>
-        <v/>
-      </c>
-      <c r="F15" s="5" t="str">
+        <f xml:space="preserve"> IF(Tesztek!E15="X","int egyed1=HanyadikSzek(egyed,"&amp;Tesztek!I15&amp;","&amp;Tesztek!J15&amp;");    int egyed2= HanyadikSzek(egyed,"&amp;Tesztek!L15&amp;","&amp;Tesztek!M15&amp;"); return (egyed1"&amp;IF(Tesztek!Q15="left","&lt;",IF(Tesztek!Q15="right","&gt;",""))&amp;"egyed2);","")</f>
+        <v/>
+      </c>
+      <c r="F15" s="4" t="str">
         <f>IF(Tesztek!F15="X","    if(egyed.allel["&amp;Tesztek!I15&amp;"]["&amp;Tesztek!Q15-1&amp;"]=="&amp;Tesztek!J15&amp;") return 0;    else return 1;","")</f>
         <v/>
       </c>
-      <c r="G15" s="5" t="str">
+      <c r="G15" s="4" t="str">
         <f>IF(Tesztek!G15="X","int egyed1=HanyadikSzek(egyed,"&amp;Tesztek!I15&amp;","&amp;Tesztek!J15&amp;");    int egyed2= HanyadikSzek(egyed,"&amp;Tesztek!L15&amp;","&amp;Tesztek!M15&amp;"); return !(egyed1==egyed2-1);","")</f>
         <v/>
       </c>
@@ -3073,23 +3606,23 @@
         <f>IF(Tesztek!B16="X","    if (egyed.allel["&amp;Tesztek!I16&amp;"][0]=="&amp;Tesztek!J16&amp;" || egyed.allel["&amp;Tesztek!I16&amp;"][SZEK-1]=="&amp;Tesztek!J16&amp;") return 0; else return 1;","")</f>
         <v/>
       </c>
-      <c r="C16" s="5" t="str">
+      <c r="C16" s="4" t="str">
         <f>IF(Tesztek!C16="X","    int egyed1=HanyadikSzek(egyed,"&amp;Tesztek!I16&amp;","&amp;Tesztek!J16&amp;");    int egyed2= HanyadikSzek(egyed,"&amp;Tesztek!L16&amp;","&amp;Tesztek!M16&amp;");    int egyed3=HanyadikSzek(egyed,"&amp;Tesztek!O16&amp;","&amp;Tesztek!P16&amp;");    return (egyed2&lt;egyed1&lt;egyed3);","")</f>
         <v/>
       </c>
-      <c r="D16" s="5" t="str">
+      <c r="D16" s="4" t="str">
         <f>IF(Tesztek!D16="X","int egyed1=HanyadikSzek(egyed,"&amp;Tesztek!I16&amp;","&amp;Tesztek!J16&amp;");    int egyed2= HanyadikSzek(egyed,"&amp;Tesztek!L16&amp;","&amp;Tesztek!M16&amp;");  return !(egyed1==egyed2"&amp;IF(Tesztek!Q16="right","-1","+1")&amp;");","")</f>
         <v/>
       </c>
       <c r="E16" t="str">
-        <f xml:space="preserve"> IF(Tesztek!E16="X","int egyed1=HanyadikSzek(egyed,"&amp;Tesztek!I16&amp;","&amp;Tesztek!J16&amp;");    int egyed2= HanyadikSzek(egyed,"&amp;Tesztek!L16&amp;","&amp;Tesztek!M16&amp;"); return (egyed1&lt;egyed2);","")</f>
-        <v/>
-      </c>
-      <c r="F16" s="5" t="str">
+        <f xml:space="preserve"> IF(Tesztek!E16="X","int egyed1=HanyadikSzek(egyed,"&amp;Tesztek!I16&amp;","&amp;Tesztek!J16&amp;");    int egyed2= HanyadikSzek(egyed,"&amp;Tesztek!L16&amp;","&amp;Tesztek!M16&amp;"); return (egyed1"&amp;IF(Tesztek!Q16="left","&lt;",IF(Tesztek!Q16="right","&gt;",""))&amp;"egyed2);","")</f>
+        <v/>
+      </c>
+      <c r="F16" s="4" t="str">
         <f>IF(Tesztek!F16="X","    if(egyed.allel["&amp;Tesztek!I16&amp;"]["&amp;Tesztek!Q16-1&amp;"]=="&amp;Tesztek!J16&amp;") return 0;    else return 1;","")</f>
         <v/>
       </c>
-      <c r="G16" s="5" t="str">
+      <c r="G16" s="4" t="str">
         <f>IF(Tesztek!G16="X","int egyed1=HanyadikSzek(egyed,"&amp;Tesztek!I16&amp;","&amp;Tesztek!J16&amp;");    int egyed2= HanyadikSzek(egyed,"&amp;Tesztek!L16&amp;","&amp;Tesztek!M16&amp;"); return !(egyed1==egyed2-1);","")</f>
         <v/>
       </c>
@@ -3107,23 +3640,23 @@
         <f>IF(Tesztek!B17="X","    if (egyed.allel["&amp;Tesztek!I17&amp;"][0]=="&amp;Tesztek!J17&amp;" || egyed.allel["&amp;Tesztek!I17&amp;"][SZEK-1]=="&amp;Tesztek!J17&amp;") return 0; else return 1;","")</f>
         <v/>
       </c>
-      <c r="C17" s="5" t="str">
+      <c r="C17" s="4" t="str">
         <f>IF(Tesztek!C17="X","    int egyed1=HanyadikSzek(egyed,"&amp;Tesztek!I17&amp;","&amp;Tesztek!J17&amp;");    int egyed2= HanyadikSzek(egyed,"&amp;Tesztek!L17&amp;","&amp;Tesztek!M17&amp;");    int egyed3=HanyadikSzek(egyed,"&amp;Tesztek!O17&amp;","&amp;Tesztek!P17&amp;");    return (egyed2&lt;egyed1&lt;egyed3);","")</f>
         <v/>
       </c>
-      <c r="D17" s="5" t="str">
+      <c r="D17" s="4" t="str">
         <f>IF(Tesztek!D17="X","int egyed1=HanyadikSzek(egyed,"&amp;Tesztek!I17&amp;","&amp;Tesztek!J17&amp;");    int egyed2= HanyadikSzek(egyed,"&amp;Tesztek!L17&amp;","&amp;Tesztek!M17&amp;");  return !(egyed1==egyed2"&amp;IF(Tesztek!Q17="right","-1","+1")&amp;");","")</f>
         <v/>
       </c>
       <c r="E17" t="str">
-        <f xml:space="preserve"> IF(Tesztek!E17="X","int egyed1=HanyadikSzek(egyed,"&amp;Tesztek!I17&amp;","&amp;Tesztek!J17&amp;");    int egyed2= HanyadikSzek(egyed,"&amp;Tesztek!L17&amp;","&amp;Tesztek!M17&amp;"); return (egyed1&lt;egyed2);","")</f>
-        <v/>
-      </c>
-      <c r="F17" s="5" t="str">
+        <f xml:space="preserve"> IF(Tesztek!E17="X","int egyed1=HanyadikSzek(egyed,"&amp;Tesztek!I17&amp;","&amp;Tesztek!J17&amp;");    int egyed2= HanyadikSzek(egyed,"&amp;Tesztek!L17&amp;","&amp;Tesztek!M17&amp;"); return (egyed1"&amp;IF(Tesztek!Q17="left","&lt;",IF(Tesztek!Q17="right","&gt;",""))&amp;"egyed2);","")</f>
+        <v/>
+      </c>
+      <c r="F17" s="4" t="str">
         <f>IF(Tesztek!F17="X","    if(egyed.allel["&amp;Tesztek!I17&amp;"]["&amp;Tesztek!Q17-1&amp;"]=="&amp;Tesztek!J17&amp;") return 0;    else return 1;","")</f>
         <v/>
       </c>
-      <c r="G17" s="5" t="str">
+      <c r="G17" s="4" t="str">
         <f>IF(Tesztek!G17="X","int egyed1=HanyadikSzek(egyed,"&amp;Tesztek!I17&amp;","&amp;Tesztek!J17&amp;");    int egyed2= HanyadikSzek(egyed,"&amp;Tesztek!L17&amp;","&amp;Tesztek!M17&amp;"); return !(egyed1==egyed2-1);","")</f>
         <v/>
       </c>
@@ -3141,23 +3674,23 @@
         <f>IF(Tesztek!B18="X","    if (egyed.allel["&amp;Tesztek!I18&amp;"][0]=="&amp;Tesztek!J18&amp;" || egyed.allel["&amp;Tesztek!I18&amp;"][SZEK-1]=="&amp;Tesztek!J18&amp;") return 0; else return 1;","")</f>
         <v/>
       </c>
-      <c r="C18" s="5" t="str">
+      <c r="C18" s="4" t="str">
         <f>IF(Tesztek!C18="X","    int egyed1=HanyadikSzek(egyed,"&amp;Tesztek!I18&amp;","&amp;Tesztek!J18&amp;");    int egyed2= HanyadikSzek(egyed,"&amp;Tesztek!L18&amp;","&amp;Tesztek!M18&amp;");    int egyed3=HanyadikSzek(egyed,"&amp;Tesztek!O18&amp;","&amp;Tesztek!P18&amp;");    return (egyed2&lt;egyed1&lt;egyed3);","")</f>
         <v/>
       </c>
-      <c r="D18" s="5" t="str">
+      <c r="D18" s="4" t="str">
         <f>IF(Tesztek!D18="X","int egyed1=HanyadikSzek(egyed,"&amp;Tesztek!I18&amp;","&amp;Tesztek!J18&amp;");    int egyed2= HanyadikSzek(egyed,"&amp;Tesztek!L18&amp;","&amp;Tesztek!M18&amp;");  return !(egyed1==egyed2"&amp;IF(Tesztek!Q18="right","-1","+1")&amp;");","")</f>
         <v/>
       </c>
       <c r="E18" t="str">
-        <f xml:space="preserve"> IF(Tesztek!E18="X","int egyed1=HanyadikSzek(egyed,"&amp;Tesztek!I18&amp;","&amp;Tesztek!J18&amp;");    int egyed2= HanyadikSzek(egyed,"&amp;Tesztek!L18&amp;","&amp;Tesztek!M18&amp;"); return (egyed1&lt;egyed2);","")</f>
-        <v/>
-      </c>
-      <c r="F18" s="5" t="str">
+        <f xml:space="preserve"> IF(Tesztek!E18="X","int egyed1=HanyadikSzek(egyed,"&amp;Tesztek!I18&amp;","&amp;Tesztek!J18&amp;");    int egyed2= HanyadikSzek(egyed,"&amp;Tesztek!L18&amp;","&amp;Tesztek!M18&amp;"); return (egyed1"&amp;IF(Tesztek!Q18="left","&lt;",IF(Tesztek!Q18="right","&gt;",""))&amp;"egyed2);","")</f>
+        <v/>
+      </c>
+      <c r="F18" s="4" t="str">
         <f>IF(Tesztek!F18="X","    if(egyed.allel["&amp;Tesztek!I18&amp;"]["&amp;Tesztek!Q18-1&amp;"]=="&amp;Tesztek!J18&amp;") return 0;    else return 1;","")</f>
         <v/>
       </c>
-      <c r="G18" s="5" t="str">
+      <c r="G18" s="4" t="str">
         <f>IF(Tesztek!G18="X","int egyed1=HanyadikSzek(egyed,"&amp;Tesztek!I18&amp;","&amp;Tesztek!J18&amp;");    int egyed2= HanyadikSzek(egyed,"&amp;Tesztek!L18&amp;","&amp;Tesztek!M18&amp;"); return !(egyed1==egyed2-1);","")</f>
         <v/>
       </c>
@@ -3175,23 +3708,23 @@
         <f>IF(Tesztek!B19="X","    if (egyed.allel["&amp;Tesztek!I19&amp;"][0]=="&amp;Tesztek!J19&amp;" || egyed.allel["&amp;Tesztek!I19&amp;"][SZEK-1]=="&amp;Tesztek!J19&amp;") return 0; else return 1;","")</f>
         <v/>
       </c>
-      <c r="C19" s="5" t="str">
+      <c r="C19" s="4" t="str">
         <f>IF(Tesztek!C19="X","    int egyed1=HanyadikSzek(egyed,"&amp;Tesztek!I19&amp;","&amp;Tesztek!J19&amp;");    int egyed2= HanyadikSzek(egyed,"&amp;Tesztek!L19&amp;","&amp;Tesztek!M19&amp;");    int egyed3=HanyadikSzek(egyed,"&amp;Tesztek!O19&amp;","&amp;Tesztek!P19&amp;");    return (egyed2&lt;egyed1&lt;egyed3);","")</f>
         <v/>
       </c>
-      <c r="D19" s="5" t="str">
+      <c r="D19" s="4" t="str">
         <f>IF(Tesztek!D19="X","int egyed1=HanyadikSzek(egyed,"&amp;Tesztek!I19&amp;","&amp;Tesztek!J19&amp;");    int egyed2= HanyadikSzek(egyed,"&amp;Tesztek!L19&amp;","&amp;Tesztek!M19&amp;");  return !(egyed1==egyed2"&amp;IF(Tesztek!Q19="right","-1","+1")&amp;");","")</f>
         <v/>
       </c>
       <c r="E19" t="str">
-        <f xml:space="preserve"> IF(Tesztek!E19="X","int egyed1=HanyadikSzek(egyed,"&amp;Tesztek!I19&amp;","&amp;Tesztek!J19&amp;");    int egyed2= HanyadikSzek(egyed,"&amp;Tesztek!L19&amp;","&amp;Tesztek!M19&amp;"); return (egyed1&lt;egyed2);","")</f>
-        <v/>
-      </c>
-      <c r="F19" s="5" t="str">
+        <f xml:space="preserve"> IF(Tesztek!E19="X","int egyed1=HanyadikSzek(egyed,"&amp;Tesztek!I19&amp;","&amp;Tesztek!J19&amp;");    int egyed2= HanyadikSzek(egyed,"&amp;Tesztek!L19&amp;","&amp;Tesztek!M19&amp;"); return (egyed1"&amp;IF(Tesztek!Q19="left","&lt;",IF(Tesztek!Q19="right","&gt;",""))&amp;"egyed2);","")</f>
+        <v/>
+      </c>
+      <c r="F19" s="4" t="str">
         <f>IF(Tesztek!F19="X","    if(egyed.allel["&amp;Tesztek!I19&amp;"]["&amp;Tesztek!Q19-1&amp;"]=="&amp;Tesztek!J19&amp;") return 0;    else return 1;","")</f>
         <v/>
       </c>
-      <c r="G19" s="5" t="str">
+      <c r="G19" s="4" t="str">
         <f>IF(Tesztek!G19="X","int egyed1=HanyadikSzek(egyed,"&amp;Tesztek!I19&amp;","&amp;Tesztek!J19&amp;");    int egyed2= HanyadikSzek(egyed,"&amp;Tesztek!L19&amp;","&amp;Tesztek!M19&amp;"); return !(egyed1==egyed2-1);","")</f>
         <v/>
       </c>
@@ -3209,23 +3742,23 @@
         <f>IF(Tesztek!B20="X","    if (egyed.allel["&amp;Tesztek!I20&amp;"][0]=="&amp;Tesztek!J20&amp;" || egyed.allel["&amp;Tesztek!I20&amp;"][SZEK-1]=="&amp;Tesztek!J20&amp;") return 0; else return 1;","")</f>
         <v/>
       </c>
-      <c r="C20" s="5" t="str">
+      <c r="C20" s="4" t="str">
         <f>IF(Tesztek!C20="X","    int egyed1=HanyadikSzek(egyed,"&amp;Tesztek!I20&amp;","&amp;Tesztek!J20&amp;");    int egyed2= HanyadikSzek(egyed,"&amp;Tesztek!L20&amp;","&amp;Tesztek!M20&amp;");    int egyed3=HanyadikSzek(egyed,"&amp;Tesztek!O20&amp;","&amp;Tesztek!P20&amp;");    return (egyed2&lt;egyed1&lt;egyed3);","")</f>
         <v/>
       </c>
-      <c r="D20" s="5" t="str">
+      <c r="D20" s="4" t="str">
         <f>IF(Tesztek!D20="X","int egyed1=HanyadikSzek(egyed,"&amp;Tesztek!I20&amp;","&amp;Tesztek!J20&amp;");    int egyed2= HanyadikSzek(egyed,"&amp;Tesztek!L20&amp;","&amp;Tesztek!M20&amp;");  return !(egyed1==egyed2"&amp;IF(Tesztek!Q20="right","-1","+1")&amp;");","")</f>
         <v/>
       </c>
       <c r="E20" t="str">
-        <f xml:space="preserve"> IF(Tesztek!E20="X","int egyed1=HanyadikSzek(egyed,"&amp;Tesztek!I20&amp;","&amp;Tesztek!J20&amp;");    int egyed2= HanyadikSzek(egyed,"&amp;Tesztek!L20&amp;","&amp;Tesztek!M20&amp;"); return (egyed1&lt;egyed2);","")</f>
-        <v/>
-      </c>
-      <c r="F20" s="5" t="str">
+        <f xml:space="preserve"> IF(Tesztek!E20="X","int egyed1=HanyadikSzek(egyed,"&amp;Tesztek!I20&amp;","&amp;Tesztek!J20&amp;");    int egyed2= HanyadikSzek(egyed,"&amp;Tesztek!L20&amp;","&amp;Tesztek!M20&amp;"); return (egyed1"&amp;IF(Tesztek!Q20="left","&lt;",IF(Tesztek!Q20="right","&gt;",""))&amp;"egyed2);","")</f>
+        <v/>
+      </c>
+      <c r="F20" s="4" t="str">
         <f>IF(Tesztek!F20="X","    if(egyed.allel["&amp;Tesztek!I20&amp;"]["&amp;Tesztek!Q20-1&amp;"]=="&amp;Tesztek!J20&amp;") return 0;    else return 1;","")</f>
         <v/>
       </c>
-      <c r="G20" s="5" t="str">
+      <c r="G20" s="4" t="str">
         <f>IF(Tesztek!G20="X","int egyed1=HanyadikSzek(egyed,"&amp;Tesztek!I20&amp;","&amp;Tesztek!J20&amp;");    int egyed2= HanyadikSzek(egyed,"&amp;Tesztek!L20&amp;","&amp;Tesztek!M20&amp;"); return !(egyed1==egyed2-1);","")</f>
         <v/>
       </c>
@@ -3243,23 +3776,23 @@
         <f>IF(Tesztek!B21="X","    if (egyed.allel["&amp;Tesztek!I21&amp;"][0]=="&amp;Tesztek!J21&amp;" || egyed.allel["&amp;Tesztek!I21&amp;"][SZEK-1]=="&amp;Tesztek!J21&amp;") return 0; else return 1;","")</f>
         <v/>
       </c>
-      <c r="C21" s="5" t="str">
+      <c r="C21" s="4" t="str">
         <f>IF(Tesztek!C21="X","    int egyed1=HanyadikSzek(egyed,"&amp;Tesztek!I21&amp;","&amp;Tesztek!J21&amp;");    int egyed2= HanyadikSzek(egyed,"&amp;Tesztek!L21&amp;","&amp;Tesztek!M21&amp;");    int egyed3=HanyadikSzek(egyed,"&amp;Tesztek!O21&amp;","&amp;Tesztek!P21&amp;");    return (egyed2&lt;egyed1&lt;egyed3);","")</f>
         <v/>
       </c>
-      <c r="D21" s="5" t="str">
+      <c r="D21" s="4" t="str">
         <f>IF(Tesztek!D21="X","int egyed1=HanyadikSzek(egyed,"&amp;Tesztek!I21&amp;","&amp;Tesztek!J21&amp;");    int egyed2= HanyadikSzek(egyed,"&amp;Tesztek!L21&amp;","&amp;Tesztek!M21&amp;");  return !(egyed1==egyed2"&amp;IF(Tesztek!Q21="right","-1","+1")&amp;");","")</f>
         <v/>
       </c>
       <c r="E21" t="str">
-        <f xml:space="preserve"> IF(Tesztek!E21="X","int egyed1=HanyadikSzek(egyed,"&amp;Tesztek!I21&amp;","&amp;Tesztek!J21&amp;");    int egyed2= HanyadikSzek(egyed,"&amp;Tesztek!L21&amp;","&amp;Tesztek!M21&amp;"); return (egyed1&lt;egyed2);","")</f>
-        <v/>
-      </c>
-      <c r="F21" s="5" t="str">
+        <f xml:space="preserve"> IF(Tesztek!E21="X","int egyed1=HanyadikSzek(egyed,"&amp;Tesztek!I21&amp;","&amp;Tesztek!J21&amp;");    int egyed2= HanyadikSzek(egyed,"&amp;Tesztek!L21&amp;","&amp;Tesztek!M21&amp;"); return (egyed1"&amp;IF(Tesztek!Q21="left","&lt;",IF(Tesztek!Q21="right","&gt;",""))&amp;"egyed2);","")</f>
+        <v/>
+      </c>
+      <c r="F21" s="4" t="str">
         <f>IF(Tesztek!F21="X","    if(egyed.allel["&amp;Tesztek!I21&amp;"]["&amp;Tesztek!Q21-1&amp;"]=="&amp;Tesztek!J21&amp;") return 0;    else return 1;","")</f>
         <v/>
       </c>
-      <c r="G21" s="5" t="str">
+      <c r="G21" s="4" t="str">
         <f>IF(Tesztek!G21="X","int egyed1=HanyadikSzek(egyed,"&amp;Tesztek!I21&amp;","&amp;Tesztek!J21&amp;");    int egyed2= HanyadikSzek(egyed,"&amp;Tesztek!L21&amp;","&amp;Tesztek!M21&amp;"); return !(egyed1==egyed2-1);","")</f>
         <v/>
       </c>
@@ -3269,19 +3802,21 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="8o2S0B1earrsXqS7jehEBFO90MMv2b+Bz24HL61ShVo2Fn0WZezXno10D6Yh+WX1x2UDo5mUerjKSYZkRzHMvQ==" saltValue="2LBxjv6YBA/pmLhjg8yU/w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F389"/>
+  <dimension ref="A1:F381"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E73" sqref="E73"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -3293,6 +3828,7 @@
         <v>58</v>
       </c>
     </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>"#define SZEK "&amp;Adatok!B2</f>
@@ -3317,6 +3853,7 @@
         <v>#define MEGTART 10</v>
       </c>
     </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f>IF(Adatok!C2="","","#define "&amp;Adatok!C2&amp;" 0")</f>
@@ -3359,1699 +3896,1841 @@
         <v/>
       </c>
     </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" t="str">
+        <f>IF(Adatok!C3="","","#define "&amp;Adatok!C3&amp;" 1")</f>
+        <v>#define NAME 1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="str">
+        <f>IF(INDEX(Adatok!$D$2:$I$7,2,ROW(A1))="","","   #define "&amp;UPPER(INDEX(Adatok!$D$2:$I$7,2,ROW(A1)))&amp;" 1"&amp;ROW(A1)-1)</f>
+        <v xml:space="preserve">   #define DANIEL 10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="str">
+        <f>IF(INDEX(Adatok!$D$2:$I$7,2,ROW(A2))="","","   #define "&amp;UPPER(INDEX(Adatok!$D$2:$I$7,2,ROW(A2)))&amp;" 1"&amp;ROW(A2)-1)</f>
+        <v xml:space="preserve">   #define JOSHUA 11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="str">
+        <f>IF(INDEX(Adatok!$D$2:$I$7,2,ROW(A3))="","","   #define "&amp;UPPER(INDEX(Adatok!$D$2:$I$7,2,ROW(A3)))&amp;" 1"&amp;ROW(A3)-1)</f>
+        <v xml:space="preserve">   #define NICHOLAS 12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="str">
+        <f>IF(INDEX(Adatok!$D$2:$I$7,2,ROW(A4))="","","   #define "&amp;UPPER(INDEX(Adatok!$D$2:$I$7,2,ROW(A4)))&amp;" 1"&amp;ROW(A4)-1)</f>
+        <v xml:space="preserve">   #define RYAN 13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="str">
+        <f>IF(INDEX(Adatok!$D$2:$I$7,2,ROW(A5))="","","   #define "&amp;UPPER(INDEX(Adatok!$D$2:$I$7,2,ROW(A5)))&amp;" 1"&amp;ROW(A5)-1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="str">
+        <f>IF(INDEX(Adatok!$D$2:$I$7,2,ROW(A6))="","","   #define "&amp;UPPER(INDEX(Adatok!$D$2:$I$7,2,ROW(A6)))&amp;" 1"&amp;ROW(A6)-1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="str">
+        <f>IF(Adatok!C4="","","#define "&amp;Adatok!C4&amp;" 2")</f>
+        <v>#define MOVIE 2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="str">
+        <f>IF(INDEX(Adatok!$D$2:$I$7,3,ROW(A1))="","","   #define "&amp;UPPER(INDEX(Adatok!$D$2:$I$7,3,ROW(A1)))&amp;" 2"&amp;ROW(A1)-1)</f>
+        <v xml:space="preserve">   #define ACTION 20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="str">
+        <f>IF(INDEX(Adatok!$D$2:$I$7,3,ROW(A2))="","","   #define "&amp;UPPER(INDEX(Adatok!$D$2:$I$7,3,ROW(A2)))&amp;" 2"&amp;ROW(A2)-1)</f>
+        <v xml:space="preserve">   #define COMEDY 21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="str">
+        <f>IF(INDEX(Adatok!$D$2:$I$7,3,ROW(A3))="","","   #define "&amp;UPPER(INDEX(Adatok!$D$2:$I$7,3,ROW(A3)))&amp;" 2"&amp;ROW(A3)-1)</f>
+        <v xml:space="preserve">   #define HORROR 22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="str">
+        <f>IF(INDEX(Adatok!$D$2:$I$7,3,ROW(A4))="","","   #define "&amp;UPPER(INDEX(Adatok!$D$2:$I$7,3,ROW(A4)))&amp;" 2"&amp;ROW(A4)-1)</f>
+        <v xml:space="preserve">   #define THRILLER 23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="str">
+        <f>IF(INDEX(Adatok!$D$2:$I$7,3,ROW(A5))="","","   #define "&amp;UPPER(INDEX(Adatok!$D$2:$I$7,3,ROW(A5)))&amp;" 2"&amp;ROW(A5)-1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="str">
+        <f>IF(INDEX(Adatok!$D$2:$I$7,3,ROW(A6))="","","   #define "&amp;UPPER(INDEX(Adatok!$D$2:$I$7,3,ROW(A6)))&amp;" 2"&amp;ROW(A6)-1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25"/>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="str">
+        <f>IF(Adatok!C5="","","#define "&amp;Adatok!C5&amp;" 3")</f>
+        <v>#define SNACK 3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="str">
+        <f>IF(INDEX(Adatok!$D$2:$I$7,4,ROW(A1))="","","   #define "&amp;UPPER(INDEX(Adatok!$D$2:$I$7,4,ROW(A1)))&amp;" 3"&amp;ROW(A1)-1)</f>
+        <v xml:space="preserve">   #define CHIPS 30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="str">
+        <f>IF(INDEX(Adatok!$D$2:$I$7,4,ROW(A2))="","","   #define "&amp;UPPER(INDEX(Adatok!$D$2:$I$7,4,ROW(A2)))&amp;" 3"&amp;ROW(A2)-1)</f>
+        <v xml:space="preserve">   #define COOKIES 31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="str">
+        <f>IF(INDEX(Adatok!$D$2:$I$7,4,ROW(A3))="","","   #define "&amp;UPPER(INDEX(Adatok!$D$2:$I$7,4,ROW(A3)))&amp;" 3"&amp;ROW(A3)-1)</f>
+        <v xml:space="preserve">   #define CRACKERS 32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="str">
+        <f>IF(INDEX(Adatok!$D$2:$I$7,4,ROW(A4))="","","   #define "&amp;UPPER(INDEX(Adatok!$D$2:$I$7,4,ROW(A4)))&amp;" 3"&amp;ROW(A4)-1)</f>
+        <v xml:space="preserve">   #define POPCORN 33</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="str">
+        <f>IF(INDEX(Adatok!$D$2:$I$7,4,ROW(A5))="","","   #define "&amp;UPPER(INDEX(Adatok!$D$2:$I$7,4,ROW(A5)))&amp;" 3"&amp;ROW(A5)-1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="str">
+        <f>IF(INDEX(Adatok!$D$2:$I$7,4,ROW(A6))="","","   #define "&amp;UPPER(INDEX(Adatok!$D$2:$I$7,4,ROW(A6)))&amp;" 3"&amp;ROW(A6)-1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="str">
+        <f>IF(Adatok!C6="","","#define "&amp;Adatok!C6&amp;" 4")</f>
+        <v>#define AGE 4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="str">
+        <f>IF(INDEX(Adatok!$D$2:$I$7,5,ROW(A1))="","","   #define "&amp;UPPER(INDEX(Adatok!$D$2:$I$7,5,ROW(A1)))&amp;" 4"&amp;ROW(A1)-1)</f>
+        <v xml:space="preserve">   #define ELEVEN 40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="str">
+        <f>IF(INDEX(Adatok!$D$2:$I$7,5,ROW(A2))="","","   #define "&amp;UPPER(INDEX(Adatok!$D$2:$I$7,5,ROW(A2)))&amp;" 4"&amp;ROW(A2)-1)</f>
+        <v xml:space="preserve">   #define TWELVE 41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="str">
+        <f>IF(INDEX(Adatok!$D$2:$I$7,5,ROW(A3))="","","   #define "&amp;UPPER(INDEX(Adatok!$D$2:$I$7,5,ROW(A3)))&amp;" 4"&amp;ROW(A3)-1)</f>
+        <v xml:space="preserve">   #define THIRTEEN 42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="str">
+        <f>IF(INDEX(Adatok!$D$2:$I$7,5,ROW(A4))="","","   #define "&amp;UPPER(INDEX(Adatok!$D$2:$I$7,5,ROW(A4)))&amp;" 4"&amp;ROW(A4)-1)</f>
+        <v xml:space="preserve">   #define FOURTEEN 43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="str">
+        <f>IF(INDEX(Adatok!$D$2:$I$7,5,ROW(A5))="","","   #define "&amp;UPPER(INDEX(Adatok!$D$2:$I$7,5,ROW(A5)))&amp;" 4"&amp;ROW(A5)-1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="str">
+        <f>IF(INDEX(Adatok!$D$2:$I$7,5,ROW(A6))="","","   #define "&amp;UPPER(INDEX(Adatok!$D$2:$I$7,5,ROW(A6)))&amp;" 4"&amp;ROW(A6)-1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25"/>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="str">
+        <f>IF(Adatok!C7="","","#define "&amp;Adatok!C7&amp;" 5")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="str">
+        <f>IF(INDEX(Adatok!$D$2:$I$7,6,ROW(A1))="","","   #define "&amp;UPPER(INDEX(Adatok!$D$2:$I$7,6,ROW(A1)))&amp;" 5"&amp;ROW(A1)-1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="str">
+        <f>IF(INDEX(Adatok!$D$2:$I$7,6,ROW(A2))="","","   #define "&amp;UPPER(INDEX(Adatok!$D$2:$I$7,6,ROW(A2)))&amp;" 5"&amp;ROW(A2)-1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="str">
+        <f>IF(INDEX(Adatok!$D$2:$I$7,6,ROW(A3))="","","   #define "&amp;UPPER(INDEX(Adatok!$D$2:$I$7,6,ROW(A3)))&amp;" 5"&amp;ROW(A3)-1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="str">
+        <f>IF(INDEX(Adatok!$D$2:$I$7,6,ROW(A4))="","","   #define "&amp;UPPER(INDEX(Adatok!$D$2:$I$7,6,ROW(A4)))&amp;" 5"&amp;ROW(A4)-1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="str">
+        <f>IF(INDEX(Adatok!$D$2:$I$7,6,ROW(A5))="","","   #define "&amp;UPPER(INDEX(Adatok!$D$2:$I$7,6,ROW(A5)))&amp;" 5"&amp;ROW(A5)-1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="str">
+        <f>IF(INDEX(Adatok!$D$2:$I$7,6,ROW(A6))="","","   #define "&amp;UPPER(INDEX(Adatok!$D$2:$I$7,6,ROW(A6)))&amp;" 5"&amp;ROW(A6)-1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="B58" t="s">
+        <v>1</v>
+      </c>
+      <c r="C58" t="s">
+        <v>2</v>
+      </c>
+      <c r="D58" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="B59" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="C59" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="D59" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="B60" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="C60" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="D60" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="B61" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="C61" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="D61" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="B62" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="C62" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="D62" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25"/>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>80</v>
-      </c>
-      <c r="B66" t="s">
-        <v>1</v>
-      </c>
-      <c r="C66" t="s">
-        <v>2</v>
-      </c>
-      <c r="D66" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>82</v>
       </c>
-      <c r="B67" t="s">
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>83</v>
       </c>
-      <c r="C67" t="s">
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>84</v>
       </c>
-      <c r="D67" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>86</v>
-      </c>
-      <c r="B68" t="s">
-        <v>87</v>
-      </c>
-      <c r="C68" t="s">
-        <v>88</v>
-      </c>
-      <c r="D68" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>90</v>
-      </c>
-      <c r="B69" t="s">
-        <v>91</v>
-      </c>
-      <c r="C69" t="s">
-        <v>92</v>
-      </c>
-      <c r="D69" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>94</v>
-      </c>
-      <c r="B70" t="s">
-        <v>95</v>
-      </c>
-      <c r="C70" t="s">
-        <v>96</v>
-      </c>
-      <c r="D70" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" t="str">
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="str">
         <f>IF(Kódok!A2="","return 0;",Kódok!B2&amp;Kódok!C2&amp;Kódok!D2&amp;Kódok!E2&amp;Kódok!F2&amp;Kódok!G2)</f>
         <v xml:space="preserve">    if (egyed.allel[NAME][0]==JOSHUA || egyed.allel[NAME][SZEK-1]==JOSHUA) return 0; else return 1;</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" t="str">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="str">
         <f>IF(Kódok!A3="","return 0;",Kódok!B3&amp;Kódok!C3&amp;Kódok!D3&amp;Kódok!E3&amp;Kódok!F3&amp;Kódok!G3)</f>
         <v>int egyed1=HanyadikSzek(egyed,SHIRT,BLACK);    int egyed2= HanyadikSzek(egyed,AGE,ELEVEN); return (egyed1&lt;egyed2);</v>
       </c>
     </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="str">
+        <f>IF(Kódok!A4="","return 0;",Kódok!B4&amp;Kódok!C4&amp;Kódok!D4&amp;Kódok!E4&amp;Kódok!F4&amp;Kódok!G4)</f>
+        <v>int egyed1=HanyadikSzek(egyed,NAME,JOSHUA);    int egyed2= HanyadikSzek(egyed,MOVIE,HORROR); return !(egyed1==egyed2-1);</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="str">
+        <f>IF(Kódok!A5="","return 0;",Kódok!B5&amp;Kódok!C5&amp;Kódok!D5&amp;Kódok!E5&amp;Kódok!F5&amp;Kódok!G5)</f>
+        <v xml:space="preserve">    if(egyed.allel[AGE][2]==FOURTEEN) return 0;    else return 1;</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>88</v>
+      </c>
+    </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>99</v>
+      <c r="A82" t="str">
+        <f>IF(Kódok!A6="","return 0;",Kódok!B6&amp;Kódok!C6&amp;Kódok!D6&amp;Kódok!E6&amp;Kódok!F6&amp;Kódok!G6)</f>
+        <v xml:space="preserve">    int egyed1=HanyadikSzek(egyed,SHIRT,RED);    int egyed2= HanyadikSzek(egyed,AGE,THIRTEEN);    int egyed3=HanyadikSzek(egyed,MOVIE,ACTION);    return (egyed2&lt;egyed1&lt;egyed3);</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" t="str">
-        <f>IF(Kódok!A4="","return 0;",Kódok!B4&amp;Kódok!C4&amp;Kódok!D4&amp;Kódok!E4&amp;Kódok!F4&amp;Kódok!G4)</f>
-        <v>int egyed1=HanyadikSzek(egyed,NAME,JOSHUA);    int egyed2= HanyadikSzek(egyed,MOVIE,HORROR); return !(egyed1==egyed2-1);</v>
+      <c r="A84" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>99</v>
+      <c r="A85" t="str">
+        <f>IF(Kódok!A7="","return 0;",Kódok!B7&amp;Kódok!C7&amp;Kódok!D7&amp;Kódok!E7&amp;Kódok!F7&amp;Kódok!G7)</f>
+        <v>int egyed1=HanyadikSzek(egyed,NAME,DANIEL);    int egyed2= HanyadikSzek(egyed,MOVIE,HORROR); return !(egyed1==egyed2-1);</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" t="str">
-        <f>IF(Kódok!A5="","return 0;",Kódok!B5&amp;Kódok!C5&amp;Kódok!D5&amp;Kódok!E5&amp;Kódok!F5&amp;Kódok!G5)</f>
-        <v xml:space="preserve">    if(egyed.allel[AGE][2]==FOURTEEN) return 0;    else return 1;</v>
+      <c r="A87" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>99</v>
+      <c r="A88" t="str">
+        <f>IF(Kódok!A8="","return 0;",Kódok!B8&amp;Kódok!C8&amp;Kódok!D8&amp;Kódok!E8&amp;Kódok!F8&amp;Kódok!G8)</f>
+        <v xml:space="preserve">    if (egyed.allel[SNACK][0]==COOKIES || egyed.allel[SNACK][SZEK-1]==COOKIES) return 0; else return 1;</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>108</v>
+        <v>79</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" t="str">
-        <f>IF(Kódok!A6="","return 0;",Kódok!B6&amp;Kódok!C6&amp;Kódok!D6&amp;Kódok!E6&amp;Kódok!F6&amp;Kódok!G6)</f>
-        <v xml:space="preserve">    int egyed1=HanyadikSzek(egyed,SHIRT,RED);    int egyed2= HanyadikSzek(egyed,AGE,THIRTEEN);    int egyed3=HanyadikSzek(egyed,MOVIE,ACTION);    return (egyed2&lt;egyed1&lt;egyed3);</v>
+      <c r="A90" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>99</v>
+      <c r="A91" t="str">
+        <f>IF(Kódok!A9="","return 0;",Kódok!B9&amp;Kódok!C9&amp;Kódok!D9&amp;Kódok!E9&amp;Kódok!F9&amp;Kódok!G9)</f>
+        <v>int egyed1=HanyadikSzek(egyed,SHIRT,BLACK);    int egyed2= HanyadikSzek(egyed,MOVIE,THRILLER);  return !(egyed1==egyed2+1);</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" t="str">
-        <f>IF(Kódok!A7="","return 0;",Kódok!B7&amp;Kódok!C7&amp;Kódok!D7&amp;Kódok!E7&amp;Kódok!F7&amp;Kódok!G7)</f>
-        <v>int egyed1=HanyadikSzek(egyed,NAME,DANIEL);    int egyed2= HanyadikSzek(egyed,MOVIE,HORROR); return !(egyed1==egyed2-1);</v>
+      <c r="A93" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>99</v>
+      <c r="A94" t="str">
+        <f>IF(Kódok!A10="","return 0;",Kódok!B10&amp;Kódok!C10&amp;Kódok!D10&amp;Kódok!E10&amp;Kódok!F10&amp;Kódok!G10)</f>
+        <v>int egyed1=HanyadikSzek(egyed,SNACK,CRACKERS);    int egyed2= HanyadikSzek(egyed,MOVIE,COMEDY);  return !(egyed1==egyed2-1);</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>110</v>
+        <v>79</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" t="str">
-        <f>IF(Kódok!A8="","return 0;",Kódok!B8&amp;Kódok!C8&amp;Kódok!D8&amp;Kódok!E8&amp;Kódok!F8&amp;Kódok!G8)</f>
-        <v xml:space="preserve">    if (egyed.allel[SNACK][0]==COOKIES || egyed.allel[SNACK][SZEK-1]==COOKIES) return 0; else return 1;</v>
+      <c r="A96" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>99</v>
+      <c r="A97" t="str">
+        <f>IF(Kódok!A11="","return 0;",Kódok!B11&amp;Kódok!C11&amp;Kódok!D11&amp;Kódok!E11&amp;Kódok!F11&amp;Kódok!G11)</f>
+        <v xml:space="preserve">    int egyed1=HanyadikSzek(egyed,SHIRT,RED);    int egyed2= HanyadikSzek(egyed,SNACK,POPCORN);    int egyed3=HanyadikSzek(egyed,NAME,NICHOLAS);    return (egyed2&lt;egyed1&lt;egyed3);</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" t="str">
-        <f>IF(Kódok!A9="","return 0;",Kódok!B9&amp;Kódok!C9&amp;Kódok!D9&amp;Kódok!E9&amp;Kódok!F9&amp;Kódok!G9)</f>
-        <v>int egyed1=HanyadikSzek(egyed,SHIRT,BLACK);    int egyed2= HanyadikSzek(egyed,MOVIE,THRILLER);  return !(egyed1==egyed2+1);</v>
+      <c r="A99" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>99</v>
+      <c r="A100" t="str">
+        <f>IF(Kódok!A12="","return 0;",Kódok!B12&amp;Kódok!C12&amp;Kódok!D12&amp;Kódok!E12&amp;Kódok!F12&amp;Kódok!G12)</f>
+        <v xml:space="preserve">    if (egyed.allel[MOVIE][0]==THRILLER || egyed.allel[MOVIE][SZEK-1]==THRILLER) return 0; else return 1;</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>112</v>
+        <v>79</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" t="str">
-        <f>IF(Kódok!A10="","return 0;",Kódok!B10&amp;Kódok!C10&amp;Kódok!D10&amp;Kódok!E10&amp;Kódok!F10&amp;Kódok!G10)</f>
-        <v>int egyed1=HanyadikSzek(egyed,SNACK,CRACKERS);    int egyed2= HanyadikSzek(egyed,MOVIE,COMEDI);  return !(egyed1==egyed2-1);</v>
+      <c r="A102" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>99</v>
+      <c r="A103" t="str">
+        <f>IF(Kódok!A13="","return 0;",Kódok!B13&amp;Kódok!C13&amp;Kódok!D13&amp;Kódok!E13&amp;Kódok!F13&amp;Kódok!G13)</f>
+        <v xml:space="preserve">    int egyed1=HanyadikSzek(egyed,NAME,NICHOLAS);    int egyed2= HanyadikSzek(egyed,NAME,JOSHUA);    int egyed3=HanyadikSzek(egyed,NAME,DANIEL);    return (egyed2&lt;egyed1&lt;egyed3);</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>113</v>
+        <v>79</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" t="str">
-        <f>IF(Kódok!A11="","return 0;",Kódok!B11&amp;Kódok!C11&amp;Kódok!D11&amp;Kódok!E11&amp;Kódok!F11&amp;Kódok!G11)</f>
-        <v xml:space="preserve">    int egyed1=HanyadikSzek(egyed,SHIRT,RED);    int egyed2= HanyadikSzek(egyed,SNACK,POPCORN);    int egyed3=HanyadikSzek(egyed,NAME,NICHOLAS);    return (egyed2&lt;egyed1&lt;egyed3);</v>
+      <c r="A105" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>99</v>
+      <c r="A106" t="str">
+        <f>IF(Kódok!A14="","return 0;",Kódok!B14&amp;Kódok!C14&amp;Kódok!D14&amp;Kódok!E14&amp;Kódok!F14&amp;Kódok!G14)</f>
+        <v xml:space="preserve">    if(egyed.allel[SHIRT][0]==GREEN) return 0;    else return 1;</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>114</v>
+        <v>79</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" t="str">
-        <f>IF(Kódok!A12="","return 0;",Kódok!B12&amp;Kódok!C12&amp;Kódok!D12&amp;Kódok!E12&amp;Kódok!F12&amp;Kódok!G12)</f>
-        <v xml:space="preserve">    if (egyed.allel[MOVIE][0]==THRILLER || egyed.allel[MOVIE][SZEK-1]==THRILLER) return 0; else return 1;</v>
+      <c r="A108" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>99</v>
+      <c r="A109" t="str">
+        <f>IF(Kódok!A15="","return 0;",Kódok!B15&amp;Kódok!C15&amp;Kódok!D15&amp;Kódok!E15&amp;Kódok!F15&amp;Kódok!G15)</f>
+        <v>return 0;</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>115</v>
+        <v>79</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" t="str">
-        <f>IF(Kódok!A13="","return 0;",Kódok!B13&amp;Kódok!C13&amp;Kódok!D13&amp;Kódok!E13&amp;Kódok!F13&amp;Kódok!G13)</f>
-        <v xml:space="preserve">    int egyed1=HanyadikSzek(egyed,NAME,NICHOLAS);    int egyed2= HanyadikSzek(egyed,NAME,JOSHUA);    int egyed3=HanyadikSzek(egyed,NAME,DANIEL);    return (egyed2&lt;egyed1&lt;egyed3);</v>
+      <c r="A111" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>99</v>
+      <c r="A112" t="str">
+        <f>IF(Kódok!A16="","return 0;",Kódok!B16&amp;Kódok!C16&amp;Kódok!D16&amp;Kódok!E16&amp;Kódok!F16&amp;Kódok!G16)</f>
+        <v>return 0;</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>116</v>
+        <v>79</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" t="str">
-        <f>IF(Kódok!A14="","return 0;",Kódok!B14&amp;Kódok!C14&amp;Kódok!D14&amp;Kódok!E14&amp;Kódok!F14&amp;Kódok!G14)</f>
-        <v xml:space="preserve">    if(egyed.allel[SHIRT][0]==GREEN) return 0;    else return 1;</v>
+      <c r="A114" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>99</v>
+      <c r="A115" t="str">
+        <f>IF(Kódok!A17="","return 0;",Kódok!B17&amp;Kódok!C17&amp;Kódok!D17&amp;Kódok!E17&amp;Kódok!F17&amp;Kódok!G17)</f>
+        <v>return 0;</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>233</v>
+        <v>79</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" t="str">
-        <f>IF(Kódok!A15="","return 0;",Kódok!B15&amp;Kódok!C15&amp;Kódok!D15&amp;Kódok!E15&amp;Kódok!F15&amp;Kódok!G15)</f>
+      <c r="A117" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" t="str">
+        <f>IF(Kódok!A18="","return 0;",Kódok!B18&amp;Kódok!C18&amp;Kódok!D18&amp;Kódok!E18&amp;Kódok!F18&amp;Kódok!G18)</f>
         <v>return 0;</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>234</v>
+        <v>79</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" t="str">
-        <f>IF(Kódok!A16="","return 0;",Kódok!B16&amp;Kódok!C16&amp;Kódok!D16&amp;Kódok!E16&amp;Kódok!F16&amp;Kódok!G16)</f>
+      <c r="A120" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" t="str">
+        <f>IF(Kódok!A19="","return 0;",Kódok!B19&amp;Kódok!C19&amp;Kódok!D19&amp;Kódok!E19&amp;Kódok!F19&amp;Kódok!G19)</f>
         <v>return 0;</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>235</v>
+        <v>79</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123" t="str">
-        <f>IF(Kódok!A17="","return 0;",Kódok!B17&amp;Kódok!C17&amp;Kódok!D17&amp;Kódok!E17&amp;Kódok!F17&amp;Kódok!G17)</f>
+      <c r="A123" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" t="str">
+        <f>IF(Kódok!A20="","return 0;",Kódok!B20&amp;Kódok!C20&amp;Kódok!D20&amp;Kódok!E20&amp;Kódok!F20&amp;Kódok!G20)</f>
         <v>return 0;</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>236</v>
+        <v>79</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126" t="str">
-        <f>IF(Kódok!A18="","return 0;",Kódok!B18&amp;Kódok!C18&amp;Kódok!D18&amp;Kódok!E18&amp;Kódok!F18&amp;Kódok!G18)</f>
+      <c r="A126" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" t="str">
+        <f>IF(Kódok!A21="","return 0;",Kódok!B21&amp;Kódok!C21&amp;Kódok!D21&amp;Kódok!E21&amp;Kódok!F21&amp;Kódok!G21)</f>
         <v>return 0;</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>237</v>
+        <v>79</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" t="str">
-        <f>IF(Kódok!A19="","return 0;",Kódok!B19&amp;Kódok!C19&amp;Kódok!D19&amp;Kódok!E19&amp;Kódok!F19&amp;Kódok!G19)</f>
-        <v>return 0;</v>
+      <c r="A129" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>238</v>
+        <v>99</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132" t="str">
-        <f>IF(Kódok!A20="","return 0;",Kódok!B20&amp;Kódok!C20&amp;Kódok!D20&amp;Kódok!E20&amp;Kódok!F20&amp;Kódok!G20)</f>
-        <v>return 0;</v>
+      <c r="A132" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>239</v>
+        <v>102</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135" t="str">
-        <f>IF(Kódok!A21="","return 0;",Kódok!B21&amp;Kódok!C21&amp;Kódok!D21&amp;Kódok!E21&amp;Kódok!F21&amp;Kódok!G21)</f>
-        <v>return 0;</v>
+      <c r="A135" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25"/>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C158" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D159" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
         <v>128</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>133</v>
+        <v>172</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>134</v>
+        <v>179</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>240</v>
+        <v>221</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C166" t="s">
-        <v>136</v>
+        <v>222</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D167" t="s">
-        <v>241</v>
+      <c r="A167" t="s">
+        <v>223</v>
+      </c>
+      <c r="E167" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>146</v>
+        <v>224</v>
+      </c>
+      <c r="F168" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>148</v>
+        <v>225</v>
+      </c>
+      <c r="E169" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>192</v>
+        <v>226</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>199</v>
+        <v>126</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>242</v>
+        <v>128</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>135</v>
+        <v>166</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C174" t="s">
-        <v>243</v>
+      <c r="A174" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>244</v>
-      </c>
-      <c r="E175" t="s">
-        <v>137</v>
+        <v>79</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
-        <v>245</v>
-      </c>
-      <c r="F176" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
-        <v>246</v>
-      </c>
-      <c r="E177" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B176" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B177" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25"/>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B184" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B185" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>250</v>
+        <v>132</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>251</v>
+        <v>136</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>154</v>
+        <v>287</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>155</v>
+        <v>288</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>156</v>
+        <v>289</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>157</v>
+        <v>290</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A213" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25"/>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A216" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B216" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A218" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B218" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+      <c r="C219" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+      <c r="C220" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>146</v>
+      </c>
+      <c r="C221" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+      <c r="D222" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B224" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+      <c r="D223" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>146</v>
+      </c>
+      <c r="C224" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B226" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>164</v>
-      </c>
-      <c r="C227" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A228" t="s">
-        <v>166</v>
-      </c>
-      <c r="C228" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25"/>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>166</v>
-      </c>
-      <c r="C229" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>166</v>
-      </c>
-      <c r="D230" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>166</v>
-      </c>
-      <c r="D231" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>166</v>
-      </c>
-      <c r="C232" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B234" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A248" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25"/>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A250" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A251" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B250" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B251" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A253" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A254" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B253" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C254" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>99</v>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>266</v>
+        <v>162</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B258" t="s">
-        <v>267</v>
+      <c r="A258" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B259" t="s">
-        <v>176</v>
+      <c r="D259" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B261" t="s">
-        <v>178</v>
+      <c r="D261" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C262" t="s">
-        <v>179</v>
+        <v>79</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A263" t="s">
-        <v>180</v>
+      <c r="B263" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D267" t="s">
-        <v>184</v>
-      </c>
-    </row>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25"/>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>185</v>
+        <v>247</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D269" t="s">
-        <v>99</v>
+      <c r="A269" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C270" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B271" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A272" t="s">
-        <v>186</v>
-      </c>
-    </row>
+      <c r="A270" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25"/>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25"/>
     <row r="273" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>187</v>
+        <v>248</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>99</v>
+        <v>249</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>268</v>
+        <v>251</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>188</v>
+        <v>252</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>99</v>
+        <v>253</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>270</v>
+        <v>126</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>271</v>
+        <v>78</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A287" t="s">
-        <v>275</v>
-      </c>
-    </row>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="288" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>277</v>
+        <v>260</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>146</v>
+        <v>170</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>98</v>
+        <v>171</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>278</v>
+        <v>172</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>279</v>
+        <v>173</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>99</v>
+        <v>174</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>280</v>
+        <v>261</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>281</v>
+        <v>176</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A299" t="s">
-        <v>191</v>
-      </c>
-    </row>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="300" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>192</v>
+        <v>262</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A304" t="s">
-        <v>282</v>
-      </c>
-    </row>
+        <v>179</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="305" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>196</v>
+        <v>263</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>148</v>
+        <v>264</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A309" t="s">
-        <v>197</v>
-      </c>
-    </row>
+        <v>266</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="310" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>198</v>
+        <v>267</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A313" t="s">
-        <v>284</v>
-      </c>
-    </row>
+        <v>268</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.25"/>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="314" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>285</v>
+        <v>180</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>287</v>
+        <v>181</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>288</v>
+        <v>183</v>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25"/>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25"/>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25"/>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D335" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D336" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C337" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25"/>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C339" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25"/>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.25"/>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.25"/>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D363" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D364" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A323" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A324" t="s">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D366" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A325" t="s">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A326" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A327" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A328" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A329" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A330" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A333" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A334" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A335" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A336" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A337" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A339" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A340" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A341" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A342" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D343" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D344" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C345" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C347" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A348" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A349" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A350" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A351" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A352" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A353" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A355" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A356" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A357" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A358" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A359" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A360" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A361" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A364" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A365" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A366" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A367" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A368" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A369" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D368" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C369" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D371" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D372" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.25"/>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A372" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D374" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A375" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D376" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C377" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25"/>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A376" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.25"/>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A379" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A382" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A384" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A386" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A387" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A388" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A389" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="AF3sZW1XoLS2zI0FXEL9PIShDicvmvr1AU3hLiyaW7HuWxGmwTcJeRtxeTUl64y1gFkYSmzaicpEp0bSwvt2Tg==" saltValue="5k3JSve5FyQZ9o3kwfqZ4A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>